--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunghoahn/Desktop/streamlit_works/KRRI_regression_streamlit/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iptimeCloud\projectSha\KRRI_regression_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D8B19-EAC8-9443-BCF0-475D76E7D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5BF3B-28C2-4088-A24C-9D53928C4486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>ACH50</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -322,15 +323,57 @@
   <si>
     <t>DHW_12</t>
   </si>
+  <si>
+    <t>Jan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,19 +773,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C164E7E-29BE-41CF-B2F5-0F7B73B40C3E}">
-  <dimension ref="A1:CR57"/>
+  <dimension ref="A1:CQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="97" max="16384" width="14.1640625" style="4"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="96" max="16384" width="14.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="28">
+    <row r="1" spans="1:95" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,116 +963,116 @@
       <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="BI1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:96">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>25</v>
       </c>
@@ -1211,115 +1254,112 @@
         <v>7933.0209999999997</v>
       </c>
       <c r="BI2">
-        <v>7933.0209999999997</v>
+        <v>6308.8289999999997</v>
       </c>
       <c r="BJ2">
-        <v>6308.8289999999997</v>
+        <v>4552.5190000000002</v>
       </c>
       <c r="BK2">
-        <v>4552.5190000000002</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL2">
-        <v>2162.1680000000001</v>
+        <v>1007.206</v>
       </c>
       <c r="BM2">
-        <v>1007.206</v>
+        <v>563.31820000000005</v>
       </c>
       <c r="BN2">
-        <v>563.31820000000005</v>
+        <v>349.40440000000001</v>
       </c>
       <c r="BO2">
-        <v>349.40440000000001</v>
+        <v>297.98320000000001</v>
       </c>
       <c r="BP2">
-        <v>297.98320000000001</v>
+        <v>530.36540000000002</v>
       </c>
       <c r="BQ2">
-        <v>530.36540000000002</v>
+        <v>1314.1849999999999</v>
       </c>
       <c r="BR2">
-        <v>1314.1849999999999</v>
+        <v>3166.165</v>
       </c>
       <c r="BS2">
-        <v>3166.165</v>
+        <v>6184.5249999999996</v>
       </c>
       <c r="BT2">
-        <v>6184.5249999999996</v>
+        <v>2780.6410000000001</v>
       </c>
       <c r="BU2">
-        <v>2780.6410000000001</v>
+        <v>5730.04</v>
       </c>
       <c r="BV2">
-        <v>5730.04</v>
+        <v>17654.919999999998</v>
       </c>
       <c r="BW2">
-        <v>17654.919999999998</v>
+        <v>27042.400000000001</v>
       </c>
       <c r="BX2">
-        <v>27042.400000000001</v>
+        <v>31134.35</v>
       </c>
       <c r="BY2">
-        <v>31134.35</v>
+        <v>36629.94</v>
       </c>
       <c r="BZ2">
-        <v>36629.94</v>
+        <v>60917.62</v>
       </c>
       <c r="CA2">
-        <v>60917.62</v>
+        <v>65100.88</v>
       </c>
       <c r="CB2">
-        <v>65100.88</v>
+        <v>38405.21</v>
       </c>
       <c r="CC2">
-        <v>38405.21</v>
+        <v>30128.46</v>
       </c>
       <c r="CD2">
-        <v>30128.46</v>
+        <v>22573.9</v>
       </c>
       <c r="CE2">
-        <v>22573.9</v>
+        <v>9734.3529999999992</v>
       </c>
       <c r="CF2">
-        <v>9734.3529999999992</v>
+        <v>94.317260000000005</v>
       </c>
       <c r="CG2">
-        <v>94.317260000000005</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH2">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI2">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ2">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK2">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL2">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM2">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN2">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO2">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP2">
-        <v>81.774569999999997</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ2">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR2">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:96">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1501,115 +1541,112 @@
         <v>6045.1</v>
       </c>
       <c r="BI3">
-        <v>6045.1</v>
+        <v>4782.7759999999998</v>
       </c>
       <c r="BJ3">
-        <v>4782.7759999999998</v>
+        <v>3336.8409999999999</v>
       </c>
       <c r="BK3">
-        <v>3336.8409999999999</v>
+        <v>1560.568</v>
       </c>
       <c r="BL3">
-        <v>1560.568</v>
+        <v>814.86609999999996</v>
       </c>
       <c r="BM3">
-        <v>814.86609999999996</v>
+        <v>503.98660000000001</v>
       </c>
       <c r="BN3">
-        <v>503.98660000000001</v>
+        <v>335.91759999999999</v>
       </c>
       <c r="BO3">
-        <v>335.91759999999999</v>
+        <v>298.71960000000001</v>
       </c>
       <c r="BP3">
-        <v>298.71960000000001</v>
+        <v>474.67520000000002</v>
       </c>
       <c r="BQ3">
-        <v>474.67520000000002</v>
+        <v>1019.82</v>
       </c>
       <c r="BR3">
-        <v>1019.82</v>
+        <v>2279.6080000000002</v>
       </c>
       <c r="BS3">
-        <v>2279.6080000000002</v>
+        <v>4660.6549999999997</v>
       </c>
       <c r="BT3">
-        <v>4660.6549999999997</v>
+        <v>3758.498</v>
       </c>
       <c r="BU3">
-        <v>3758.498</v>
+        <v>6671.58</v>
       </c>
       <c r="BV3">
-        <v>6671.58</v>
+        <v>18572.73</v>
       </c>
       <c r="BW3">
-        <v>18572.73</v>
+        <v>27075.05</v>
       </c>
       <c r="BX3">
-        <v>27075.05</v>
+        <v>30994.02</v>
       </c>
       <c r="BY3">
-        <v>30994.02</v>
+        <v>35918.83</v>
       </c>
       <c r="BZ3">
-        <v>35918.83</v>
+        <v>59225.9</v>
       </c>
       <c r="CA3">
-        <v>59225.9</v>
+        <v>63166.89</v>
       </c>
       <c r="CB3">
-        <v>63166.89</v>
+        <v>37631.160000000003</v>
       </c>
       <c r="CC3">
-        <v>37631.160000000003</v>
+        <v>30034.91</v>
       </c>
       <c r="CD3">
-        <v>30034.91</v>
+        <v>23003.11</v>
       </c>
       <c r="CE3">
-        <v>23003.11</v>
+        <v>10770.54</v>
       </c>
       <c r="CF3">
-        <v>10770.54</v>
+        <v>94.31738</v>
       </c>
       <c r="CG3">
-        <v>94.31738</v>
+        <v>85.485860000000002</v>
       </c>
       <c r="CH3">
-        <v>85.485860000000002</v>
+        <v>94.249520000000004</v>
       </c>
       <c r="CI3">
-        <v>94.249520000000004</v>
+        <v>89.283680000000004</v>
       </c>
       <c r="CJ3">
-        <v>89.283680000000004</v>
+        <v>87.432199999999995</v>
       </c>
       <c r="CK3">
-        <v>87.432199999999995</v>
+        <v>78.753619999999998</v>
       </c>
       <c r="CL3">
-        <v>78.753619999999998</v>
+        <v>77.442279999999997</v>
       </c>
       <c r="CM3">
-        <v>77.442279999999997</v>
+        <v>76.058499999999995</v>
       </c>
       <c r="CN3">
-        <v>76.058499999999995</v>
+        <v>75.195580000000007</v>
       </c>
       <c r="CO3">
-        <v>75.195580000000007</v>
+        <v>81.770420000000001</v>
       </c>
       <c r="CP3">
-        <v>81.770420000000001</v>
+        <v>85.115430000000003</v>
       </c>
       <c r="CQ3">
-        <v>85.115430000000003</v>
-      </c>
-      <c r="CR3">
         <v>92.459530000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:96">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1791,115 +1828,112 @@
         <v>4140.0339999999997</v>
       </c>
       <c r="BI4">
-        <v>4140.0339999999997</v>
+        <v>3223.0529999999999</v>
       </c>
       <c r="BJ4">
-        <v>3223.0529999999999</v>
+        <v>2133.0340000000001</v>
       </c>
       <c r="BK4">
-        <v>2133.0340000000001</v>
+        <v>1067.4449999999999</v>
       </c>
       <c r="BL4">
-        <v>1067.4449999999999</v>
+        <v>648.09590000000003</v>
       </c>
       <c r="BM4">
-        <v>648.09590000000003</v>
+        <v>447.2534</v>
       </c>
       <c r="BN4">
-        <v>447.2534</v>
+        <v>318.05040000000002</v>
       </c>
       <c r="BO4">
-        <v>318.05040000000002</v>
+        <v>297.32499999999999</v>
       </c>
       <c r="BP4">
-        <v>297.32499999999999</v>
+        <v>420.46690000000001</v>
       </c>
       <c r="BQ4">
-        <v>420.46690000000001</v>
+        <v>768.87699999999995</v>
       </c>
       <c r="BR4">
-        <v>768.87699999999995</v>
+        <v>1463.703</v>
       </c>
       <c r="BS4">
-        <v>1463.703</v>
+        <v>3091.989</v>
       </c>
       <c r="BT4">
-        <v>3091.989</v>
+        <v>4947.3389999999999</v>
       </c>
       <c r="BU4">
-        <v>4947.3389999999999</v>
+        <v>7742.4970000000003</v>
       </c>
       <c r="BV4">
-        <v>7742.4970000000003</v>
+        <v>19452.46</v>
       </c>
       <c r="BW4">
-        <v>19452.46</v>
+        <v>27146.66</v>
       </c>
       <c r="BX4">
-        <v>27146.66</v>
+        <v>30868.87</v>
       </c>
       <c r="BY4">
-        <v>30868.87</v>
+        <v>35248.51</v>
       </c>
       <c r="BZ4">
-        <v>35248.51</v>
+        <v>57692.25</v>
       </c>
       <c r="CA4">
-        <v>57692.25</v>
+        <v>61444.58</v>
       </c>
       <c r="CB4">
-        <v>61444.58</v>
+        <v>36917</v>
       </c>
       <c r="CC4">
-        <v>36917</v>
+        <v>29962.13</v>
       </c>
       <c r="CD4">
-        <v>29962.13</v>
+        <v>23496.97</v>
       </c>
       <c r="CE4">
-        <v>23496.97</v>
+        <v>11870.58</v>
       </c>
       <c r="CF4">
-        <v>11870.58</v>
+        <v>94.316980000000001</v>
       </c>
       <c r="CG4">
-        <v>94.316980000000001</v>
+        <v>85.485709999999997</v>
       </c>
       <c r="CH4">
-        <v>85.485709999999997</v>
+        <v>94.247299999999996</v>
       </c>
       <c r="CI4">
-        <v>94.247299999999996</v>
+        <v>89.283299999999997</v>
       </c>
       <c r="CJ4">
-        <v>89.283299999999997</v>
+        <v>87.432109999999994</v>
       </c>
       <c r="CK4">
-        <v>87.432109999999994</v>
+        <v>78.751109999999997</v>
       </c>
       <c r="CL4">
-        <v>78.751109999999997</v>
+        <v>77.438519999999997</v>
       </c>
       <c r="CM4">
-        <v>77.438519999999997</v>
+        <v>76.058480000000003</v>
       </c>
       <c r="CN4">
-        <v>76.058480000000003</v>
+        <v>75.192930000000004</v>
       </c>
       <c r="CO4">
-        <v>75.192930000000004</v>
+        <v>81.767070000000004</v>
       </c>
       <c r="CP4">
-        <v>81.767070000000004</v>
+        <v>85.114069999999998</v>
       </c>
       <c r="CQ4">
-        <v>85.114069999999998</v>
-      </c>
-      <c r="CR4">
         <v>92.458330000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:96">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -2081,115 +2115,112 @@
         <v>8332.2669999999998</v>
       </c>
       <c r="BI5">
-        <v>8332.2669999999998</v>
+        <v>6646.1809999999996</v>
       </c>
       <c r="BJ5">
-        <v>6646.1809999999996</v>
+        <v>4856.3320000000003</v>
       </c>
       <c r="BK5">
-        <v>4856.3320000000003</v>
+        <v>2399.7890000000002</v>
       </c>
       <c r="BL5">
-        <v>2399.7890000000002</v>
+        <v>1113.2570000000001</v>
       </c>
       <c r="BM5">
-        <v>1113.2570000000001</v>
+        <v>607.30119999999999</v>
       </c>
       <c r="BN5">
-        <v>607.30119999999999</v>
+        <v>381.25990000000002</v>
       </c>
       <c r="BO5">
-        <v>381.25990000000002</v>
+        <v>331.4212</v>
       </c>
       <c r="BP5">
-        <v>331.4212</v>
+        <v>571.50959999999998</v>
       </c>
       <c r="BQ5">
-        <v>571.50959999999998</v>
+        <v>1454.9010000000001</v>
       </c>
       <c r="BR5">
-        <v>1454.9010000000001</v>
+        <v>3439.6309999999999</v>
       </c>
       <c r="BS5">
-        <v>3439.6309999999999</v>
+        <v>6531.0060000000003</v>
       </c>
       <c r="BT5">
-        <v>6531.0060000000003</v>
+        <v>2399.8820000000001</v>
       </c>
       <c r="BU5">
-        <v>2399.8820000000001</v>
+        <v>5251.1549999999997</v>
       </c>
       <c r="BV5">
-        <v>5251.1549999999997</v>
+        <v>16806.41</v>
       </c>
       <c r="BW5">
-        <v>16806.41</v>
+        <v>26757.01</v>
       </c>
       <c r="BX5">
-        <v>26757.01</v>
+        <v>31077.49</v>
       </c>
       <c r="BY5">
-        <v>31077.49</v>
+        <v>36446.86</v>
       </c>
       <c r="BZ5">
-        <v>36446.86</v>
+        <v>60621.47</v>
       </c>
       <c r="CA5">
-        <v>60621.47</v>
+        <v>64769.99</v>
       </c>
       <c r="CB5">
-        <v>64769.99</v>
+        <v>38221.480000000003</v>
       </c>
       <c r="CC5">
-        <v>38221.480000000003</v>
+        <v>30023.56</v>
       </c>
       <c r="CD5">
-        <v>30023.56</v>
+        <v>22078.21</v>
       </c>
       <c r="CE5">
-        <v>22078.21</v>
+        <v>9108.75</v>
       </c>
       <c r="CF5">
-        <v>9108.75</v>
+        <v>94.31729</v>
       </c>
       <c r="CG5">
-        <v>94.31729</v>
+        <v>85.486310000000003</v>
       </c>
       <c r="CH5">
-        <v>85.486310000000003</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI5">
-        <v>94.249399999999994</v>
+        <v>89.28519</v>
       </c>
       <c r="CJ5">
-        <v>89.28519</v>
+        <v>87.432199999999995</v>
       </c>
       <c r="CK5">
-        <v>87.432199999999995</v>
+        <v>78.757220000000004</v>
       </c>
       <c r="CL5">
-        <v>78.757220000000004</v>
+        <v>77.444659999999999</v>
       </c>
       <c r="CM5">
-        <v>77.444659999999999</v>
+        <v>76.060199999999995</v>
       </c>
       <c r="CN5">
-        <v>76.060199999999995</v>
+        <v>75.20147</v>
       </c>
       <c r="CO5">
-        <v>75.20147</v>
+        <v>81.775700000000001</v>
       </c>
       <c r="CP5">
-        <v>81.775700000000001</v>
+        <v>85.117000000000004</v>
       </c>
       <c r="CQ5">
-        <v>85.117000000000004</v>
-      </c>
-      <c r="CR5">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:96">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2371,115 +2402,112 @@
         <v>8742.4240000000009</v>
       </c>
       <c r="BI6">
-        <v>8742.4240000000009</v>
+        <v>6988.201</v>
       </c>
       <c r="BJ6">
-        <v>6988.201</v>
+        <v>5163.9059999999999</v>
       </c>
       <c r="BK6">
-        <v>5163.9059999999999</v>
+        <v>2660.8220000000001</v>
       </c>
       <c r="BL6">
-        <v>2660.8220000000001</v>
+        <v>1244.239</v>
       </c>
       <c r="BM6">
-        <v>1244.239</v>
+        <v>659.85090000000002</v>
       </c>
       <c r="BN6">
-        <v>659.85090000000002</v>
+        <v>413.32339999999999</v>
       </c>
       <c r="BO6">
-        <v>413.32339999999999</v>
+        <v>362.59440000000001</v>
       </c>
       <c r="BP6">
-        <v>362.59440000000001</v>
+        <v>621.31669999999997</v>
       </c>
       <c r="BQ6">
-        <v>621.31669999999997</v>
+        <v>1623.395</v>
       </c>
       <c r="BR6">
-        <v>1623.395</v>
+        <v>3718.7269999999999</v>
       </c>
       <c r="BS6">
-        <v>3718.7269999999999</v>
+        <v>6881.4480000000003</v>
       </c>
       <c r="BT6">
-        <v>6881.4480000000003</v>
+        <v>2054.1970000000001</v>
       </c>
       <c r="BU6">
-        <v>2054.1970000000001</v>
+        <v>4795.3689999999997</v>
       </c>
       <c r="BV6">
-        <v>4795.3689999999997</v>
+        <v>15952.28</v>
       </c>
       <c r="BW6">
-        <v>15952.28</v>
+        <v>26453.49</v>
       </c>
       <c r="BX6">
-        <v>26453.49</v>
+        <v>31024.880000000001</v>
       </c>
       <c r="BY6">
-        <v>31024.880000000001</v>
+        <v>36266.07</v>
       </c>
       <c r="BZ6">
-        <v>36266.07</v>
+        <v>60325.82</v>
       </c>
       <c r="CA6">
-        <v>60325.82</v>
+        <v>64440.41</v>
       </c>
       <c r="CB6">
-        <v>64440.41</v>
+        <v>38040.839999999997</v>
       </c>
       <c r="CC6">
-        <v>38040.839999999997</v>
+        <v>29912.2</v>
       </c>
       <c r="CD6">
-        <v>29912.2</v>
+        <v>21558.63</v>
       </c>
       <c r="CE6">
-        <v>21558.63</v>
+        <v>8496.8860000000004</v>
       </c>
       <c r="CF6">
-        <v>8496.8860000000004</v>
+        <v>94.317419999999998</v>
       </c>
       <c r="CG6">
-        <v>94.317419999999998</v>
+        <v>85.486419999999995</v>
       </c>
       <c r="CH6">
-        <v>85.486419999999995</v>
+        <v>94.248829999999998</v>
       </c>
       <c r="CI6">
-        <v>94.248829999999998</v>
+        <v>89.284940000000006</v>
       </c>
       <c r="CJ6">
-        <v>89.284940000000006</v>
+        <v>87.433459999999997</v>
       </c>
       <c r="CK6">
-        <v>87.433459999999997</v>
+        <v>78.759010000000004</v>
       </c>
       <c r="CL6">
-        <v>78.759010000000004</v>
+        <v>77.447620000000001</v>
       </c>
       <c r="CM6">
-        <v>77.447620000000001</v>
+        <v>76.06026</v>
       </c>
       <c r="CN6">
-        <v>76.06026</v>
+        <v>75.202759999999998</v>
       </c>
       <c r="CO6">
-        <v>75.202759999999998</v>
+        <v>81.776309999999995</v>
       </c>
       <c r="CP6">
-        <v>81.776309999999995</v>
+        <v>85.117170000000002</v>
       </c>
       <c r="CQ6">
-        <v>85.117170000000002</v>
-      </c>
-      <c r="CR6">
         <v>92.459599999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:96">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -2661,115 +2689,112 @@
         <v>7933.0209999999997</v>
       </c>
       <c r="BI7">
-        <v>7933.0209999999997</v>
+        <v>6308.8289999999997</v>
       </c>
       <c r="BJ7">
-        <v>6308.8289999999997</v>
+        <v>4552.5190000000002</v>
       </c>
       <c r="BK7">
-        <v>4552.5190000000002</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL7">
-        <v>2162.1680000000001</v>
+        <v>1007.206</v>
       </c>
       <c r="BM7">
-        <v>1007.206</v>
+        <v>563.31820000000005</v>
       </c>
       <c r="BN7">
-        <v>563.31820000000005</v>
+        <v>349.40440000000001</v>
       </c>
       <c r="BO7">
-        <v>349.40440000000001</v>
+        <v>297.98320000000001</v>
       </c>
       <c r="BP7">
-        <v>297.98320000000001</v>
+        <v>530.36540000000002</v>
       </c>
       <c r="BQ7">
-        <v>530.36540000000002</v>
+        <v>1314.1849999999999</v>
       </c>
       <c r="BR7">
-        <v>1314.1849999999999</v>
+        <v>3166.165</v>
       </c>
       <c r="BS7">
-        <v>3166.165</v>
+        <v>6184.5249999999996</v>
       </c>
       <c r="BT7">
-        <v>6184.5249999999996</v>
+        <v>2352.85</v>
       </c>
       <c r="BU7">
-        <v>2352.85</v>
+        <v>4848.4949999999999</v>
       </c>
       <c r="BV7">
-        <v>4848.4949999999999</v>
+        <v>14938.78</v>
       </c>
       <c r="BW7">
-        <v>14938.78</v>
+        <v>22882.03</v>
       </c>
       <c r="BX7">
-        <v>22882.03</v>
+        <v>26344.45</v>
       </c>
       <c r="BY7">
-        <v>26344.45</v>
+        <v>30994.57</v>
       </c>
       <c r="BZ7">
-        <v>30994.57</v>
+        <v>51545.68</v>
       </c>
       <c r="CA7">
-        <v>51545.68</v>
+        <v>55085.36</v>
       </c>
       <c r="CB7">
-        <v>55085.36</v>
+        <v>32496.71</v>
       </c>
       <c r="CC7">
-        <v>32496.71</v>
+        <v>25493.31</v>
       </c>
       <c r="CD7">
-        <v>25493.31</v>
+        <v>19100.990000000002</v>
       </c>
       <c r="CE7">
-        <v>19100.990000000002</v>
+        <v>8236.76</v>
       </c>
       <c r="CF7">
-        <v>8236.76</v>
+        <v>94.317260000000005</v>
       </c>
       <c r="CG7">
-        <v>94.317260000000005</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH7">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI7">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ7">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK7">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL7">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM7">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN7">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO7">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP7">
-        <v>81.774569999999997</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ7">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR7">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:96">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -2951,115 +2976,112 @@
         <v>7933.0209999999997</v>
       </c>
       <c r="BI8">
-        <v>7933.0209999999997</v>
+        <v>6308.8289999999997</v>
       </c>
       <c r="BJ8">
-        <v>6308.8289999999997</v>
+        <v>4552.5190000000002</v>
       </c>
       <c r="BK8">
-        <v>4552.5190000000002</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL8">
-        <v>2162.1680000000001</v>
+        <v>1007.206</v>
       </c>
       <c r="BM8">
-        <v>1007.206</v>
+        <v>563.31820000000005</v>
       </c>
       <c r="BN8">
-        <v>563.31820000000005</v>
+        <v>349.40440000000001</v>
       </c>
       <c r="BO8">
-        <v>349.40440000000001</v>
+        <v>297.98320000000001</v>
       </c>
       <c r="BP8">
-        <v>297.98320000000001</v>
+        <v>530.36540000000002</v>
       </c>
       <c r="BQ8">
-        <v>530.36540000000002</v>
+        <v>1314.1849999999999</v>
       </c>
       <c r="BR8">
-        <v>1314.1849999999999</v>
+        <v>3166.165</v>
       </c>
       <c r="BS8">
-        <v>3166.165</v>
+        <v>6184.5249999999996</v>
       </c>
       <c r="BT8">
-        <v>6184.5249999999996</v>
+        <v>2039.1369999999999</v>
       </c>
       <c r="BU8">
-        <v>2039.1369999999999</v>
+        <v>4202.0290000000005</v>
       </c>
       <c r="BV8">
-        <v>4202.0290000000005</v>
+        <v>12946.94</v>
       </c>
       <c r="BW8">
-        <v>12946.94</v>
+        <v>19831.09</v>
       </c>
       <c r="BX8">
-        <v>19831.09</v>
+        <v>22831.86</v>
       </c>
       <c r="BY8">
-        <v>22831.86</v>
+        <v>26861.96</v>
       </c>
       <c r="BZ8">
-        <v>26861.96</v>
+        <v>44672.92</v>
       </c>
       <c r="CA8">
-        <v>44672.92</v>
+        <v>47740.639999999999</v>
       </c>
       <c r="CB8">
-        <v>47740.639999999999</v>
+        <v>28163.82</v>
       </c>
       <c r="CC8">
-        <v>28163.82</v>
+        <v>22094.21</v>
       </c>
       <c r="CD8">
-        <v>22094.21</v>
+        <v>16554.189999999999</v>
       </c>
       <c r="CE8">
-        <v>16554.189999999999</v>
+        <v>7138.5249999999996</v>
       </c>
       <c r="CF8">
-        <v>7138.5249999999996</v>
+        <v>94.317260000000005</v>
       </c>
       <c r="CG8">
-        <v>94.317260000000005</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH8">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI8">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ8">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK8">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL8">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM8">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN8">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO8">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP8">
-        <v>81.774569999999997</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ8">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR8">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:96">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -3241,115 +3263,112 @@
         <v>7933.0209999999997</v>
       </c>
       <c r="BI9">
-        <v>7933.0209999999997</v>
+        <v>6308.8289999999997</v>
       </c>
       <c r="BJ9">
-        <v>6308.8289999999997</v>
+        <v>4552.5190000000002</v>
       </c>
       <c r="BK9">
-        <v>4552.5190000000002</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL9">
-        <v>2162.1680000000001</v>
+        <v>1007.206</v>
       </c>
       <c r="BM9">
-        <v>1007.206</v>
+        <v>563.31820000000005</v>
       </c>
       <c r="BN9">
-        <v>563.31820000000005</v>
+        <v>349.40440000000001</v>
       </c>
       <c r="BO9">
-        <v>349.40440000000001</v>
+        <v>297.98320000000001</v>
       </c>
       <c r="BP9">
-        <v>297.98320000000001</v>
+        <v>530.36540000000002</v>
       </c>
       <c r="BQ9">
-        <v>530.36540000000002</v>
+        <v>1314.1849999999999</v>
       </c>
       <c r="BR9">
-        <v>1314.1849999999999</v>
+        <v>3166.165</v>
       </c>
       <c r="BS9">
-        <v>3166.165</v>
+        <v>6184.5249999999996</v>
       </c>
       <c r="BT9">
-        <v>6184.5249999999996</v>
+        <v>2780.6410000000001</v>
       </c>
       <c r="BU9">
-        <v>2780.6410000000001</v>
+        <v>5730.04</v>
       </c>
       <c r="BV9">
-        <v>5730.04</v>
+        <v>17654.919999999998</v>
       </c>
       <c r="BW9">
-        <v>17654.919999999998</v>
+        <v>27042.400000000001</v>
       </c>
       <c r="BX9">
-        <v>27042.400000000001</v>
+        <v>31134.35</v>
       </c>
       <c r="BY9">
-        <v>31134.35</v>
+        <v>36629.94</v>
       </c>
       <c r="BZ9">
-        <v>36629.94</v>
+        <v>60917.62</v>
       </c>
       <c r="CA9">
-        <v>60917.62</v>
+        <v>65100.88</v>
       </c>
       <c r="CB9">
-        <v>65100.88</v>
+        <v>38405.21</v>
       </c>
       <c r="CC9">
-        <v>38405.21</v>
+        <v>30128.46</v>
       </c>
       <c r="CD9">
-        <v>30128.46</v>
+        <v>22573.9</v>
       </c>
       <c r="CE9">
-        <v>22573.9</v>
+        <v>9734.3529999999992</v>
       </c>
       <c r="CF9">
-        <v>9734.3529999999992</v>
+        <v>94.317260000000005</v>
       </c>
       <c r="CG9">
-        <v>94.317260000000005</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH9">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI9">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ9">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK9">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL9">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM9">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN9">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO9">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP9">
-        <v>81.774569999999997</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ9">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR9">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:96">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25</v>
       </c>
@@ -3531,115 +3550,112 @@
         <v>7933.0209999999997</v>
       </c>
       <c r="BI10">
-        <v>7933.0209999999997</v>
+        <v>6308.8289999999997</v>
       </c>
       <c r="BJ10">
-        <v>6308.8289999999997</v>
+        <v>4552.5190000000002</v>
       </c>
       <c r="BK10">
-        <v>4552.5190000000002</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL10">
-        <v>2162.1680000000001</v>
+        <v>1007.206</v>
       </c>
       <c r="BM10">
-        <v>1007.206</v>
+        <v>563.31820000000005</v>
       </c>
       <c r="BN10">
-        <v>563.31820000000005</v>
+        <v>349.40440000000001</v>
       </c>
       <c r="BO10">
-        <v>349.40440000000001</v>
+        <v>297.98320000000001</v>
       </c>
       <c r="BP10">
-        <v>297.98320000000001</v>
+        <v>530.36540000000002</v>
       </c>
       <c r="BQ10">
-        <v>530.36540000000002</v>
+        <v>1314.1849999999999</v>
       </c>
       <c r="BR10">
-        <v>1314.1849999999999</v>
+        <v>3166.165</v>
       </c>
       <c r="BS10">
-        <v>3166.165</v>
+        <v>6184.5249999999996</v>
       </c>
       <c r="BT10">
-        <v>6184.5249999999996</v>
+        <v>2780.6410000000001</v>
       </c>
       <c r="BU10">
-        <v>2780.6410000000001</v>
+        <v>5730.04</v>
       </c>
       <c r="BV10">
-        <v>5730.04</v>
+        <v>17654.919999999998</v>
       </c>
       <c r="BW10">
-        <v>17654.919999999998</v>
+        <v>27042.400000000001</v>
       </c>
       <c r="BX10">
-        <v>27042.400000000001</v>
+        <v>31134.35</v>
       </c>
       <c r="BY10">
-        <v>31134.35</v>
+        <v>36629.94</v>
       </c>
       <c r="BZ10">
-        <v>36629.94</v>
+        <v>60917.62</v>
       </c>
       <c r="CA10">
-        <v>60917.62</v>
+        <v>65100.88</v>
       </c>
       <c r="CB10">
-        <v>65100.88</v>
+        <v>38405.21</v>
       </c>
       <c r="CC10">
-        <v>38405.21</v>
+        <v>30128.46</v>
       </c>
       <c r="CD10">
-        <v>30128.46</v>
+        <v>22573.9</v>
       </c>
       <c r="CE10">
-        <v>22573.9</v>
+        <v>9734.3529999999992</v>
       </c>
       <c r="CF10">
-        <v>9734.3529999999992</v>
+        <v>94.317260000000005</v>
       </c>
       <c r="CG10">
-        <v>94.317260000000005</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH10">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI10">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ10">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK10">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL10">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM10">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN10">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO10">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP10">
-        <v>81.774569999999997</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ10">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR10">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:96">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -3821,115 +3837,112 @@
         <v>8049.357</v>
       </c>
       <c r="BI11">
-        <v>8049.357</v>
+        <v>6377.692</v>
       </c>
       <c r="BJ11">
-        <v>6377.692</v>
+        <v>4562.8999999999996</v>
       </c>
       <c r="BK11">
-        <v>4562.8999999999996</v>
+        <v>2162.7710000000002</v>
       </c>
       <c r="BL11">
-        <v>2162.7710000000002</v>
+        <v>1007.5549999999999</v>
       </c>
       <c r="BM11">
-        <v>1007.5549999999999</v>
+        <v>563.55050000000006</v>
       </c>
       <c r="BN11">
-        <v>563.55050000000006</v>
+        <v>349.738</v>
       </c>
       <c r="BO11">
-        <v>349.738</v>
+        <v>298.21910000000003</v>
       </c>
       <c r="BP11">
-        <v>298.21910000000003</v>
+        <v>530.57910000000004</v>
       </c>
       <c r="BQ11">
-        <v>530.57910000000004</v>
+        <v>1314.6010000000001</v>
       </c>
       <c r="BR11">
-        <v>1314.6010000000001</v>
+        <v>3169.7809999999999</v>
       </c>
       <c r="BS11">
-        <v>3169.7809999999999</v>
+        <v>6234.6139999999996</v>
       </c>
       <c r="BT11">
-        <v>6234.6139999999996</v>
+        <v>2315.864</v>
       </c>
       <c r="BU11">
-        <v>2315.864</v>
+        <v>5160.6719999999996</v>
       </c>
       <c r="BV11">
-        <v>5160.6719999999996</v>
+        <v>16653.09</v>
       </c>
       <c r="BW11">
-        <v>16653.09</v>
+        <v>26670.21</v>
       </c>
       <c r="BX11">
-        <v>26670.21</v>
+        <v>30988.69</v>
       </c>
       <c r="BY11">
-        <v>30988.69</v>
+        <v>36252.839999999997</v>
       </c>
       <c r="BZ11">
-        <v>36252.839999999997</v>
+        <v>60323.37</v>
       </c>
       <c r="CA11">
-        <v>60323.37</v>
+        <v>64461.51</v>
       </c>
       <c r="CB11">
-        <v>64461.51</v>
+        <v>38033.06</v>
       </c>
       <c r="CC11">
-        <v>38033.06</v>
+        <v>29941.02</v>
       </c>
       <c r="CD11">
-        <v>29941.02</v>
+        <v>21956.639999999999</v>
       </c>
       <c r="CE11">
-        <v>21956.639999999999</v>
+        <v>8989.6530000000002</v>
       </c>
       <c r="CF11">
-        <v>8989.6530000000002</v>
+        <v>94.31729</v>
       </c>
       <c r="CG11">
-        <v>94.31729</v>
+        <v>85.486109999999996</v>
       </c>
       <c r="CH11">
-        <v>85.486109999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI11">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ11">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK11">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL11">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM11">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN11">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO11">
-        <v>75.200940000000003</v>
+        <v>81.774839999999998</v>
       </c>
       <c r="CP11">
-        <v>81.774839999999998</v>
+        <v>85.116900000000001</v>
       </c>
       <c r="CQ11">
-        <v>85.116900000000001</v>
-      </c>
-      <c r="CR11">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:96">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -4111,115 +4124,112 @@
         <v>8130.6019999999999</v>
       </c>
       <c r="BI12">
-        <v>8130.6019999999999</v>
+        <v>6435.0950000000003</v>
       </c>
       <c r="BJ12">
-        <v>6435.0950000000003</v>
+        <v>4572.16</v>
       </c>
       <c r="BK12">
-        <v>4572.16</v>
+        <v>2163.241</v>
       </c>
       <c r="BL12">
-        <v>2163.241</v>
+        <v>1007.826</v>
       </c>
       <c r="BM12">
-        <v>1007.826</v>
+        <v>563.73149999999998</v>
       </c>
       <c r="BN12">
-        <v>563.73149999999998</v>
+        <v>349.9973</v>
       </c>
       <c r="BO12">
-        <v>349.9973</v>
+        <v>298.40280000000001</v>
       </c>
       <c r="BP12">
-        <v>298.40280000000001</v>
+        <v>530.74530000000004</v>
       </c>
       <c r="BQ12">
-        <v>530.74530000000004</v>
+        <v>1314.9349999999999</v>
       </c>
       <c r="BR12">
-        <v>1314.9349999999999</v>
+        <v>3172.9189999999999</v>
       </c>
       <c r="BS12">
-        <v>3172.9189999999999</v>
+        <v>6275.4920000000002</v>
       </c>
       <c r="BT12">
-        <v>6275.4920000000002</v>
+        <v>1995.3689999999999</v>
       </c>
       <c r="BU12">
-        <v>1995.3689999999999</v>
+        <v>4739.2139999999999</v>
       </c>
       <c r="BV12">
-        <v>4739.2139999999999</v>
+        <v>15867.98</v>
       </c>
       <c r="BW12">
-        <v>15867.98</v>
+        <v>26364.2</v>
       </c>
       <c r="BX12">
-        <v>26364.2</v>
+        <v>30881.97</v>
       </c>
       <c r="BY12">
-        <v>30881.97</v>
+        <v>35962.379999999997</v>
       </c>
       <c r="BZ12">
-        <v>35962.379999999997</v>
+        <v>59861.71</v>
       </c>
       <c r="CA12">
-        <v>59861.71</v>
+        <v>63965.26</v>
       </c>
       <c r="CB12">
-        <v>63965.26</v>
+        <v>37748.54</v>
       </c>
       <c r="CC12">
-        <v>37748.54</v>
+        <v>29792.35</v>
       </c>
       <c r="CD12">
-        <v>29792.35</v>
+        <v>21456.28</v>
       </c>
       <c r="CE12">
-        <v>21456.28</v>
+        <v>8423.2469999999994</v>
       </c>
       <c r="CF12">
-        <v>8423.2469999999994</v>
+        <v>94.317300000000003</v>
       </c>
       <c r="CG12">
-        <v>94.317300000000003</v>
+        <v>85.486019999999996</v>
       </c>
       <c r="CH12">
-        <v>85.486019999999996</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI12">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ12">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK12">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL12">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM12">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN12">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO12">
-        <v>75.200940000000003</v>
+        <v>81.774839999999998</v>
       </c>
       <c r="CP12">
-        <v>81.774839999999998</v>
+        <v>85.117149999999995</v>
       </c>
       <c r="CQ12">
-        <v>85.117149999999995</v>
-      </c>
-      <c r="CR12">
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:96">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -4401,115 +4411,112 @@
         <v>7264.2690000000002</v>
       </c>
       <c r="BI13">
-        <v>7264.2690000000002</v>
+        <v>5883.6760000000004</v>
       </c>
       <c r="BJ13">
-        <v>5883.6760000000004</v>
+        <v>4510.8130000000001</v>
       </c>
       <c r="BK13">
-        <v>4510.8130000000001</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL13">
-        <v>2162.1680000000001</v>
+        <v>1007.2</v>
       </c>
       <c r="BM13">
-        <v>1007.2</v>
+        <v>563.31089999999995</v>
       </c>
       <c r="BN13">
-        <v>563.31089999999995</v>
+        <v>349.66070000000002</v>
       </c>
       <c r="BO13">
-        <v>349.66070000000002</v>
+        <v>297.99200000000002</v>
       </c>
       <c r="BP13">
-        <v>297.99200000000002</v>
+        <v>530.36099999999999</v>
       </c>
       <c r="BQ13">
-        <v>530.36099999999999</v>
+        <v>1314.18</v>
       </c>
       <c r="BR13">
-        <v>1314.18</v>
+        <v>3159.8539999999998</v>
       </c>
       <c r="BS13">
-        <v>3159.8539999999998</v>
+        <v>5887.7659999999996</v>
       </c>
       <c r="BT13">
-        <v>5887.7659999999996</v>
+        <v>11637.51</v>
       </c>
       <c r="BU13">
-        <v>11637.51</v>
+        <v>13939.13</v>
       </c>
       <c r="BV13">
-        <v>13939.13</v>
+        <v>25665.040000000001</v>
       </c>
       <c r="BW13">
-        <v>25665.040000000001</v>
+        <v>28899.96</v>
       </c>
       <c r="BX13">
-        <v>28899.96</v>
+        <v>31322.06</v>
       </c>
       <c r="BY13">
-        <v>31322.06</v>
+        <v>36855.68</v>
       </c>
       <c r="BZ13">
-        <v>36855.68</v>
+        <v>60821.01</v>
       </c>
       <c r="CA13">
-        <v>60821.01</v>
+        <v>64678.23</v>
       </c>
       <c r="CB13">
-        <v>64678.23</v>
+        <v>38565.79</v>
       </c>
       <c r="CC13">
-        <v>38565.79</v>
+        <v>30740.89</v>
       </c>
       <c r="CD13">
-        <v>30740.89</v>
+        <v>27122.32</v>
       </c>
       <c r="CE13">
-        <v>27122.32</v>
+        <v>18401.259999999998</v>
       </c>
       <c r="CF13">
-        <v>18401.259999999998</v>
+        <v>94.317229999999995</v>
       </c>
       <c r="CG13">
-        <v>94.317229999999995</v>
+        <v>85.485810000000001</v>
       </c>
       <c r="CH13">
-        <v>85.485810000000001</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI13">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ13">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK13">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL13">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM13">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN13">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO13">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP13">
-        <v>81.774569999999997</v>
+        <v>85.117000000000004</v>
       </c>
       <c r="CQ13">
-        <v>85.117000000000004</v>
-      </c>
-      <c r="CR13">
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:96">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -4691,115 +4698,112 @@
         <v>7223.2960000000003</v>
       </c>
       <c r="BI14">
-        <v>7223.2960000000003</v>
+        <v>5866.8720000000003</v>
       </c>
       <c r="BJ14">
-        <v>5866.8720000000003</v>
+        <v>4510.8100000000004</v>
       </c>
       <c r="BK14">
-        <v>4510.8100000000004</v>
+        <v>2162.1680000000001</v>
       </c>
       <c r="BL14">
-        <v>2162.1680000000001</v>
+        <v>1007.194</v>
       </c>
       <c r="BM14">
-        <v>1007.194</v>
+        <v>563.30349999999999</v>
       </c>
       <c r="BN14">
-        <v>563.30349999999999</v>
+        <v>349.8777</v>
       </c>
       <c r="BO14">
-        <v>349.8777</v>
+        <v>297.99979999999999</v>
       </c>
       <c r="BP14">
-        <v>297.99979999999999</v>
+        <v>530.35680000000002</v>
       </c>
       <c r="BQ14">
-        <v>530.35680000000002</v>
+        <v>1314.175</v>
       </c>
       <c r="BR14">
-        <v>1314.175</v>
+        <v>3159.8530000000001</v>
       </c>
       <c r="BS14">
-        <v>3159.8530000000001</v>
+        <v>5877.5450000000001</v>
       </c>
       <c r="BT14">
-        <v>5877.5450000000001</v>
+        <v>24045.74</v>
       </c>
       <c r="BU14">
-        <v>24045.74</v>
+        <v>23451.599999999999</v>
       </c>
       <c r="BV14">
-        <v>23451.599999999999</v>
+        <v>29842.14</v>
       </c>
       <c r="BW14">
-        <v>29842.14</v>
+        <v>29450.560000000001</v>
       </c>
       <c r="BX14">
-        <v>29450.560000000001</v>
+        <v>31557.83</v>
       </c>
       <c r="BY14">
-        <v>31557.83</v>
+        <v>37098.78</v>
       </c>
       <c r="BZ14">
-        <v>37098.78</v>
+        <v>60724</v>
       </c>
       <c r="CA14">
-        <v>60724</v>
+        <v>64260.12</v>
       </c>
       <c r="CB14">
-        <v>64260.12</v>
+        <v>38748.86</v>
       </c>
       <c r="CC14">
-        <v>38748.86</v>
+        <v>31123.16</v>
       </c>
       <c r="CD14">
-        <v>31123.16</v>
+        <v>29330.57</v>
       </c>
       <c r="CE14">
-        <v>29330.57</v>
+        <v>27296.27</v>
       </c>
       <c r="CF14">
-        <v>27296.27</v>
+        <v>94.317210000000003</v>
       </c>
       <c r="CG14">
-        <v>94.317210000000003</v>
+        <v>85.485709999999997</v>
       </c>
       <c r="CH14">
-        <v>85.485709999999997</v>
+        <v>94.249399999999994</v>
       </c>
       <c r="CI14">
-        <v>94.249399999999994</v>
+        <v>89.284769999999995</v>
       </c>
       <c r="CJ14">
-        <v>89.284769999999995</v>
+        <v>87.432149999999993</v>
       </c>
       <c r="CK14">
-        <v>87.432149999999993</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL14">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM14">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN14">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO14">
-        <v>75.200940000000003</v>
+        <v>81.774569999999997</v>
       </c>
       <c r="CP14">
-        <v>81.774569999999997</v>
+        <v>85.117000000000004</v>
       </c>
       <c r="CQ14">
-        <v>85.117000000000004</v>
-      </c>
-      <c r="CR14">
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:96">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -4981,115 +4985,112 @@
         <v>17970.61</v>
       </c>
       <c r="BI15">
-        <v>17970.61</v>
+        <v>14427.78</v>
       </c>
       <c r="BJ15">
-        <v>14427.78</v>
+        <v>10193.25</v>
       </c>
       <c r="BK15">
-        <v>10193.25</v>
+        <v>3807.5079999999998</v>
       </c>
       <c r="BL15">
-        <v>3807.5079999999998</v>
+        <v>1067.1420000000001</v>
       </c>
       <c r="BM15">
-        <v>1067.1420000000001</v>
+        <v>563.46609999999998</v>
       </c>
       <c r="BN15">
-        <v>563.46609999999998</v>
+        <v>349.40710000000001</v>
       </c>
       <c r="BO15">
-        <v>349.40710000000001</v>
+        <v>297.98250000000002</v>
       </c>
       <c r="BP15">
-        <v>297.98250000000002</v>
+        <v>534.53219999999999</v>
       </c>
       <c r="BQ15">
-        <v>534.53219999999999</v>
+        <v>1735.69</v>
       </c>
       <c r="BR15">
-        <v>1735.69</v>
+        <v>6495.8909999999996</v>
       </c>
       <c r="BS15">
-        <v>6495.8909999999996</v>
+        <v>14119.22</v>
       </c>
       <c r="BT15">
-        <v>14119.22</v>
+        <v>0</v>
       </c>
       <c r="BU15">
         <v>0</v>
       </c>
       <c r="BV15">
+        <v>2.3609999999999998E-3</v>
+      </c>
+      <c r="BW15">
+        <v>3434.491</v>
+      </c>
+      <c r="BX15">
+        <v>17842.080000000002</v>
+      </c>
+      <c r="BY15">
+        <v>34940.839999999997</v>
+      </c>
+      <c r="BZ15">
+        <v>60794.27</v>
+      </c>
+      <c r="CA15">
+        <v>65097.07</v>
+      </c>
+      <c r="CB15">
+        <v>36255.339999999997</v>
+      </c>
+      <c r="CC15">
+        <v>14346.25</v>
+      </c>
+      <c r="CD15">
+        <v>1113.047</v>
+      </c>
+      <c r="CE15">
         <v>0</v>
       </c>
-      <c r="BW15">
-        <v>2.3609999999999998E-3</v>
-      </c>
-      <c r="BX15">
-        <v>3434.491</v>
-      </c>
-      <c r="BY15">
-        <v>17842.080000000002</v>
-      </c>
-      <c r="BZ15">
-        <v>34940.839999999997</v>
-      </c>
-      <c r="CA15">
-        <v>60794.27</v>
-      </c>
-      <c r="CB15">
-        <v>65097.07</v>
-      </c>
-      <c r="CC15">
-        <v>36255.339999999997</v>
-      </c>
-      <c r="CD15">
-        <v>14346.25</v>
-      </c>
-      <c r="CE15">
-        <v>1113.047</v>
-      </c>
       <c r="CF15">
-        <v>0</v>
+        <v>94.315470000000005</v>
       </c>
       <c r="CG15">
-        <v>94.315470000000005</v>
+        <v>85.485439999999997</v>
       </c>
       <c r="CH15">
-        <v>85.485439999999997</v>
+        <v>94.248990000000006</v>
       </c>
       <c r="CI15">
-        <v>94.248990000000006</v>
+        <v>89.284469999999999</v>
       </c>
       <c r="CJ15">
-        <v>89.284469999999999</v>
+        <v>87.4328</v>
       </c>
       <c r="CK15">
-        <v>87.4328</v>
+        <v>78.755669999999995</v>
       </c>
       <c r="CL15">
-        <v>78.755669999999995</v>
+        <v>77.442629999999994</v>
       </c>
       <c r="CM15">
-        <v>77.442629999999994</v>
+        <v>76.059690000000003</v>
       </c>
       <c r="CN15">
-        <v>76.059690000000003</v>
+        <v>75.200940000000003</v>
       </c>
       <c r="CO15">
-        <v>75.200940000000003</v>
+        <v>81.777439999999999</v>
       </c>
       <c r="CP15">
-        <v>81.777439999999999</v>
+        <v>85.119889999999998</v>
       </c>
       <c r="CQ15">
-        <v>85.119889999999998</v>
-      </c>
-      <c r="CR15">
         <v>92.458849999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:96">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>25</v>
       </c>
@@ -5271,115 +5272,112 @@
         <v>3072.8159999999998</v>
       </c>
       <c r="BI16">
-        <v>3072.8159999999998</v>
+        <v>2403.2440000000001</v>
       </c>
       <c r="BJ16">
-        <v>2403.2440000000001</v>
+        <v>1688.048</v>
       </c>
       <c r="BK16">
-        <v>1688.048</v>
+        <v>882.67349999999999</v>
       </c>
       <c r="BL16">
-        <v>882.67349999999999</v>
+        <v>568.72</v>
       </c>
       <c r="BM16">
-        <v>568.72</v>
+        <v>399.92500000000001</v>
       </c>
       <c r="BN16">
-        <v>399.92500000000001</v>
+        <v>300.07389999999998</v>
       </c>
       <c r="BO16">
-        <v>300.07389999999998</v>
+        <v>305.53550000000001</v>
       </c>
       <c r="BP16">
-        <v>305.53550000000001</v>
+        <v>380.46940000000001</v>
       </c>
       <c r="BQ16">
-        <v>380.46940000000001</v>
+        <v>675.04089999999997</v>
       </c>
       <c r="BR16">
-        <v>675.04089999999997</v>
+        <v>1190.5530000000001</v>
       </c>
       <c r="BS16">
-        <v>1190.5530000000001</v>
+        <v>2340.5329999999999</v>
       </c>
       <c r="BT16">
-        <v>2340.5329999999999</v>
+        <v>4922.1930000000002</v>
       </c>
       <c r="BU16">
-        <v>4922.1930000000002</v>
+        <v>7691.9480000000003</v>
       </c>
       <c r="BV16">
-        <v>7691.9480000000003</v>
+        <v>18948.64</v>
       </c>
       <c r="BW16">
-        <v>18948.64</v>
+        <v>26309.07</v>
       </c>
       <c r="BX16">
-        <v>26309.07</v>
+        <v>29929.49</v>
       </c>
       <c r="BY16">
-        <v>29929.49</v>
+        <v>34061.69</v>
       </c>
       <c r="BZ16">
-        <v>34061.69</v>
+        <v>55254.34</v>
       </c>
       <c r="CA16">
-        <v>55254.34</v>
+        <v>58564.36</v>
       </c>
       <c r="CB16">
-        <v>58564.36</v>
+        <v>35620.78</v>
       </c>
       <c r="CC16">
-        <v>35620.78</v>
+        <v>28997.98</v>
       </c>
       <c r="CD16">
-        <v>28997.98</v>
+        <v>22890.15</v>
       </c>
       <c r="CE16">
-        <v>22890.15</v>
+        <v>11611.65</v>
       </c>
       <c r="CF16">
-        <v>11611.65</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG16">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH16">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI16">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ16">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK16">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL16">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM16">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN16">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO16">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP16">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ16">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR16">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:96">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -5561,115 +5559,112 @@
         <v>2324.4540000000002</v>
       </c>
       <c r="BI17">
-        <v>2324.4540000000002</v>
+        <v>1808.3610000000001</v>
       </c>
       <c r="BJ17">
-        <v>1808.3610000000001</v>
+        <v>1270.5609999999999</v>
       </c>
       <c r="BK17">
-        <v>1270.5609999999999</v>
+        <v>723.97770000000003</v>
       </c>
       <c r="BL17">
-        <v>723.97770000000003</v>
+        <v>504.3544</v>
       </c>
       <c r="BM17">
-        <v>504.3544</v>
+        <v>373.93979999999999</v>
       </c>
       <c r="BN17">
-        <v>373.93979999999999</v>
+        <v>293.43669999999997</v>
       </c>
       <c r="BO17">
-        <v>293.43669999999997</v>
+        <v>305.97620000000001</v>
       </c>
       <c r="BP17">
-        <v>305.97620000000001</v>
+        <v>356.05020000000002</v>
       </c>
       <c r="BQ17">
-        <v>356.05020000000002</v>
+        <v>583.59580000000005</v>
       </c>
       <c r="BR17">
-        <v>583.59580000000005</v>
+        <v>910.67129999999997</v>
       </c>
       <c r="BS17">
-        <v>910.67129999999997</v>
+        <v>1766.396</v>
       </c>
       <c r="BT17">
-        <v>1766.396</v>
+        <v>6375.875</v>
       </c>
       <c r="BU17">
-        <v>6375.875</v>
+        <v>9048.2690000000002</v>
       </c>
       <c r="BV17">
-        <v>9048.2690000000002</v>
+        <v>20373.28</v>
       </c>
       <c r="BW17">
-        <v>20373.28</v>
+        <v>26688.77</v>
       </c>
       <c r="BX17">
-        <v>26688.77</v>
+        <v>29950.400000000001</v>
       </c>
       <c r="BY17">
-        <v>29950.400000000001</v>
+        <v>34104.14</v>
       </c>
       <c r="BZ17">
-        <v>34104.14</v>
+        <v>55259.09</v>
       </c>
       <c r="CA17">
-        <v>55259.09</v>
+        <v>58519.46</v>
       </c>
       <c r="CB17">
-        <v>58519.46</v>
+        <v>35647.800000000003</v>
       </c>
       <c r="CC17">
-        <v>35647.800000000003</v>
+        <v>29097.3</v>
       </c>
       <c r="CD17">
-        <v>29097.3</v>
+        <v>23669.98</v>
       </c>
       <c r="CE17">
-        <v>23669.98</v>
+        <v>13078.36</v>
       </c>
       <c r="CF17">
-        <v>13078.36</v>
+        <v>205.47630000000001</v>
       </c>
       <c r="CG17">
-        <v>205.47630000000001</v>
+        <v>186.2363</v>
       </c>
       <c r="CH17">
-        <v>186.2363</v>
+        <v>205.3271</v>
       </c>
       <c r="CI17">
-        <v>205.3271</v>
+        <v>194.5145</v>
       </c>
       <c r="CJ17">
-        <v>194.5145</v>
+        <v>190.48269999999999</v>
       </c>
       <c r="CK17">
-        <v>190.48269999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL17">
-        <v>171.57599999999999</v>
+        <v>168.7234</v>
       </c>
       <c r="CM17">
-        <v>168.7234</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN17">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO17">
-        <v>163.82259999999999</v>
+        <v>178.1422</v>
       </c>
       <c r="CP17">
-        <v>178.1422</v>
+        <v>185.42939999999999</v>
       </c>
       <c r="CQ17">
-        <v>185.42939999999999</v>
-      </c>
-      <c r="CR17">
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:96">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5851,115 +5846,112 @@
         <v>1596.047</v>
       </c>
       <c r="BI18">
-        <v>1596.047</v>
+        <v>1239.874</v>
       </c>
       <c r="BJ18">
-        <v>1239.874</v>
+        <v>900.43960000000004</v>
       </c>
       <c r="BK18">
-        <v>900.43960000000004</v>
+        <v>595.37459999999999</v>
       </c>
       <c r="BL18">
-        <v>595.37459999999999</v>
+        <v>441.91289999999998</v>
       </c>
       <c r="BM18">
-        <v>441.91289999999998</v>
+        <v>346.39359999999999</v>
       </c>
       <c r="BN18">
-        <v>346.39359999999999</v>
+        <v>284.15359999999998</v>
       </c>
       <c r="BO18">
-        <v>284.15359999999998</v>
+        <v>303.95549999999997</v>
       </c>
       <c r="BP18">
-        <v>303.95549999999997</v>
+        <v>330.93369999999999</v>
       </c>
       <c r="BQ18">
-        <v>330.93369999999999</v>
+        <v>498.5181</v>
       </c>
       <c r="BR18">
-        <v>498.5181</v>
+        <v>685.40449999999998</v>
       </c>
       <c r="BS18">
-        <v>685.40449999999998</v>
+        <v>1216.3130000000001</v>
       </c>
       <c r="BT18">
-        <v>1216.3130000000001</v>
+        <v>8114.17</v>
       </c>
       <c r="BU18">
-        <v>8114.17</v>
+        <v>10592.45</v>
       </c>
       <c r="BV18">
-        <v>10592.45</v>
+        <v>21808.23</v>
       </c>
       <c r="BW18">
-        <v>21808.23</v>
+        <v>27043.58</v>
       </c>
       <c r="BX18">
-        <v>27043.58</v>
+        <v>29961.03</v>
       </c>
       <c r="BY18">
-        <v>29961.03</v>
+        <v>34140.949999999997</v>
       </c>
       <c r="BZ18">
-        <v>34140.949999999997</v>
+        <v>55259.46</v>
       </c>
       <c r="CA18">
-        <v>55259.46</v>
+        <v>58469.75</v>
       </c>
       <c r="CB18">
-        <v>58469.75</v>
+        <v>35667.24</v>
       </c>
       <c r="CC18">
-        <v>35667.24</v>
+        <v>29182.84</v>
       </c>
       <c r="CD18">
-        <v>29182.84</v>
+        <v>24438.78</v>
       </c>
       <c r="CE18">
-        <v>24438.78</v>
+        <v>14651.81</v>
       </c>
       <c r="CF18">
-        <v>14651.81</v>
+        <v>205.4761</v>
       </c>
       <c r="CG18">
-        <v>205.4761</v>
+        <v>186.23599999999999</v>
       </c>
       <c r="CH18">
-        <v>186.23599999999999</v>
+        <v>205.3272</v>
       </c>
       <c r="CI18">
-        <v>205.3272</v>
+        <v>194.5145</v>
       </c>
       <c r="CJ18">
-        <v>194.5145</v>
+        <v>190.48269999999999</v>
       </c>
       <c r="CK18">
-        <v>190.48269999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL18">
-        <v>171.57599999999999</v>
+        <v>168.72300000000001</v>
       </c>
       <c r="CM18">
-        <v>168.72300000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN18">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO18">
-        <v>163.82259999999999</v>
+        <v>178.13740000000001</v>
       </c>
       <c r="CP18">
-        <v>178.13740000000001</v>
+        <v>185.42930000000001</v>
       </c>
       <c r="CQ18">
-        <v>185.42930000000001</v>
-      </c>
-      <c r="CR18">
         <v>201.43109999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:96">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -6141,115 +6133,112 @@
         <v>3179.1190000000001</v>
       </c>
       <c r="BI19">
-        <v>3179.1190000000001</v>
+        <v>2487.1239999999998</v>
       </c>
       <c r="BJ19">
-        <v>2487.1239999999998</v>
+        <v>1748.5239999999999</v>
       </c>
       <c r="BK19">
-        <v>1748.5239999999999</v>
+        <v>907.04380000000003</v>
       </c>
       <c r="BL19">
-        <v>907.04380000000003</v>
+        <v>571.66719999999998</v>
       </c>
       <c r="BM19">
-        <v>571.66719999999998</v>
+        <v>398.64240000000001</v>
       </c>
       <c r="BN19">
-        <v>398.64240000000001</v>
+        <v>297.3347</v>
       </c>
       <c r="BO19">
-        <v>297.3347</v>
+        <v>302.96550000000002</v>
       </c>
       <c r="BP19">
-        <v>302.96550000000002</v>
+        <v>379.51569999999998</v>
       </c>
       <c r="BQ19">
-        <v>379.51569999999998</v>
+        <v>681.93790000000001</v>
       </c>
       <c r="BR19">
-        <v>681.93790000000001</v>
+        <v>1230.4939999999999</v>
       </c>
       <c r="BS19">
-        <v>1230.4939999999999</v>
+        <v>2418.962</v>
       </c>
       <c r="BT19">
-        <v>2418.962</v>
+        <v>4274.8959999999997</v>
       </c>
       <c r="BU19">
-        <v>4274.8959999999997</v>
+        <v>7038.1559999999999</v>
       </c>
       <c r="BV19">
-        <v>7038.1559999999999</v>
+        <v>18051.14</v>
       </c>
       <c r="BW19">
-        <v>18051.14</v>
+        <v>25970.2</v>
       </c>
       <c r="BX19">
-        <v>25970.2</v>
+        <v>29846.45</v>
       </c>
       <c r="BY19">
-        <v>29846.45</v>
+        <v>33856.239999999998</v>
       </c>
       <c r="BZ19">
-        <v>33856.239999999998</v>
+        <v>54935.95</v>
       </c>
       <c r="CA19">
-        <v>54935.95</v>
+        <v>58218.77</v>
       </c>
       <c r="CB19">
-        <v>58218.77</v>
+        <v>35418.74</v>
       </c>
       <c r="CC19">
-        <v>35418.74</v>
+        <v>28855.34</v>
       </c>
       <c r="CD19">
-        <v>28855.34</v>
+        <v>22359.13</v>
       </c>
       <c r="CE19">
-        <v>22359.13</v>
+        <v>10850.25</v>
       </c>
       <c r="CF19">
-        <v>10850.25</v>
+        <v>205.4786</v>
       </c>
       <c r="CG19">
-        <v>205.4786</v>
+        <v>186.23650000000001</v>
       </c>
       <c r="CH19">
-        <v>186.23650000000001</v>
+        <v>205.3297</v>
       </c>
       <c r="CI19">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ19">
-        <v>194.5164</v>
+        <v>190.48259999999999</v>
       </c>
       <c r="CK19">
-        <v>190.48259999999999</v>
+        <v>171.57679999999999</v>
       </c>
       <c r="CL19">
-        <v>171.57679999999999</v>
+        <v>168.7236</v>
       </c>
       <c r="CM19">
-        <v>168.7236</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN19">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO19">
-        <v>163.82259999999999</v>
+        <v>178.14789999999999</v>
       </c>
       <c r="CP19">
-        <v>178.14789999999999</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ19">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR19">
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:96">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -6431,115 +6420,112 @@
         <v>3289.8290000000002</v>
       </c>
       <c r="BI20">
-        <v>3289.8290000000002</v>
+        <v>2570.384</v>
       </c>
       <c r="BJ20">
-        <v>2570.384</v>
+        <v>1807.3109999999999</v>
       </c>
       <c r="BK20">
-        <v>1807.3109999999999</v>
+        <v>936.0181</v>
       </c>
       <c r="BL20">
-        <v>936.0181</v>
+        <v>574.32240000000002</v>
       </c>
       <c r="BM20">
-        <v>574.32240000000002</v>
+        <v>397.50130000000001</v>
       </c>
       <c r="BN20">
-        <v>397.50130000000001</v>
+        <v>294.59609999999998</v>
       </c>
       <c r="BO20">
-        <v>294.59609999999998</v>
+        <v>300.37349999999998</v>
       </c>
       <c r="BP20">
-        <v>300.37349999999998</v>
+        <v>378.54849999999999</v>
       </c>
       <c r="BQ20">
-        <v>378.54849999999999</v>
+        <v>689.96169999999995</v>
       </c>
       <c r="BR20">
-        <v>689.96169999999995</v>
+        <v>1271.3050000000001</v>
       </c>
       <c r="BS20">
-        <v>1271.3050000000001</v>
+        <v>2499.7600000000002</v>
       </c>
       <c r="BT20">
-        <v>2499.7600000000002</v>
+        <v>3675.1840000000002</v>
       </c>
       <c r="BU20">
-        <v>3675.1840000000002</v>
+        <v>6409.2719999999999</v>
       </c>
       <c r="BV20">
-        <v>6409.2719999999999</v>
+        <v>17130.830000000002</v>
       </c>
       <c r="BW20">
-        <v>17130.830000000002</v>
+        <v>25617.23</v>
       </c>
       <c r="BX20">
-        <v>25617.23</v>
+        <v>29764.44</v>
       </c>
       <c r="BY20">
-        <v>29764.44</v>
+        <v>33652.85</v>
       </c>
       <c r="BZ20">
-        <v>33652.85</v>
+        <v>54618.38</v>
       </c>
       <c r="CA20">
-        <v>54618.38</v>
+        <v>57875</v>
       </c>
       <c r="CB20">
-        <v>57875</v>
+        <v>35219.730000000003</v>
       </c>
       <c r="CC20">
-        <v>35219.730000000003</v>
+        <v>28700.54</v>
       </c>
       <c r="CD20">
-        <v>28700.54</v>
+        <v>21809.96</v>
       </c>
       <c r="CE20">
-        <v>21809.96</v>
+        <v>10106.92</v>
       </c>
       <c r="CF20">
-        <v>10106.92</v>
+        <v>205.47970000000001</v>
       </c>
       <c r="CG20">
-        <v>205.47970000000001</v>
+        <v>186.23570000000001</v>
       </c>
       <c r="CH20">
-        <v>186.23570000000001</v>
+        <v>205.32849999999999</v>
       </c>
       <c r="CI20">
-        <v>205.32849999999999</v>
+        <v>194.51650000000001</v>
       </c>
       <c r="CJ20">
-        <v>194.51650000000001</v>
+        <v>190.48320000000001</v>
       </c>
       <c r="CK20">
-        <v>190.48320000000001</v>
+        <v>171.57849999999999</v>
       </c>
       <c r="CL20">
-        <v>171.57849999999999</v>
+        <v>168.7253</v>
       </c>
       <c r="CM20">
-        <v>168.7253</v>
+        <v>165.7122</v>
       </c>
       <c r="CN20">
-        <v>165.7122</v>
+        <v>163.8252</v>
       </c>
       <c r="CO20">
-        <v>163.8252</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP20">
-        <v>178.14840000000001</v>
+        <v>185.43170000000001</v>
       </c>
       <c r="CQ20">
-        <v>185.43170000000001</v>
-      </c>
-      <c r="CR20">
         <v>201.43270000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:96">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -6721,115 +6707,112 @@
         <v>3072.8159999999998</v>
       </c>
       <c r="BI21">
-        <v>3072.8159999999998</v>
+        <v>2403.2440000000001</v>
       </c>
       <c r="BJ21">
-        <v>2403.2440000000001</v>
+        <v>1688.048</v>
       </c>
       <c r="BK21">
-        <v>1688.048</v>
+        <v>882.67349999999999</v>
       </c>
       <c r="BL21">
-        <v>882.67349999999999</v>
+        <v>568.72</v>
       </c>
       <c r="BM21">
-        <v>568.72</v>
+        <v>399.92500000000001</v>
       </c>
       <c r="BN21">
-        <v>399.92500000000001</v>
+        <v>300.07389999999998</v>
       </c>
       <c r="BO21">
-        <v>300.07389999999998</v>
+        <v>305.53550000000001</v>
       </c>
       <c r="BP21">
-        <v>305.53550000000001</v>
+        <v>380.46940000000001</v>
       </c>
       <c r="BQ21">
-        <v>380.46940000000001</v>
+        <v>675.04089999999997</v>
       </c>
       <c r="BR21">
-        <v>675.04089999999997</v>
+        <v>1190.5530000000001</v>
       </c>
       <c r="BS21">
-        <v>1190.5530000000001</v>
+        <v>2340.5329999999999</v>
       </c>
       <c r="BT21">
-        <v>2340.5329999999999</v>
+        <v>4164.9319999999998</v>
       </c>
       <c r="BU21">
-        <v>4164.9319999999998</v>
+        <v>6508.5709999999999</v>
       </c>
       <c r="BV21">
-        <v>6508.5709999999999</v>
+        <v>16033.47</v>
       </c>
       <c r="BW21">
-        <v>16033.47</v>
+        <v>22261.52</v>
       </c>
       <c r="BX21">
-        <v>22261.52</v>
+        <v>25324.959999999999</v>
       </c>
       <c r="BY21">
-        <v>25324.959999999999</v>
+        <v>28821.43</v>
       </c>
       <c r="BZ21">
-        <v>28821.43</v>
+        <v>46753.67</v>
       </c>
       <c r="CA21">
-        <v>46753.67</v>
+        <v>49554.46</v>
       </c>
       <c r="CB21">
-        <v>49554.46</v>
+        <v>30140.66</v>
       </c>
       <c r="CC21">
-        <v>30140.66</v>
+        <v>24536.75</v>
       </c>
       <c r="CD21">
-        <v>24536.75</v>
+        <v>19368.59</v>
       </c>
       <c r="CE21">
-        <v>19368.59</v>
+        <v>9825.2450000000008</v>
       </c>
       <c r="CF21">
-        <v>9825.2450000000008</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG21">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH21">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI21">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ21">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK21">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL21">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM21">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN21">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO21">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP21">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ21">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR21">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:96">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -7011,115 +6994,112 @@
         <v>3072.8159999999998</v>
       </c>
       <c r="BI22">
-        <v>3072.8159999999998</v>
+        <v>2403.2440000000001</v>
       </c>
       <c r="BJ22">
-        <v>2403.2440000000001</v>
+        <v>1688.048</v>
       </c>
       <c r="BK22">
-        <v>1688.048</v>
+        <v>882.67349999999999</v>
       </c>
       <c r="BL22">
-        <v>882.67349999999999</v>
+        <v>568.72</v>
       </c>
       <c r="BM22">
-        <v>568.72</v>
+        <v>399.92500000000001</v>
       </c>
       <c r="BN22">
-        <v>399.92500000000001</v>
+        <v>300.07389999999998</v>
       </c>
       <c r="BO22">
-        <v>300.07389999999998</v>
+        <v>305.53550000000001</v>
       </c>
       <c r="BP22">
-        <v>305.53550000000001</v>
+        <v>380.46940000000001</v>
       </c>
       <c r="BQ22">
-        <v>380.46940000000001</v>
+        <v>675.04089999999997</v>
       </c>
       <c r="BR22">
-        <v>675.04089999999997</v>
+        <v>1190.5530000000001</v>
       </c>
       <c r="BS22">
-        <v>1190.5530000000001</v>
+        <v>2340.5329999999999</v>
       </c>
       <c r="BT22">
-        <v>2340.5329999999999</v>
+        <v>3609.6080000000002</v>
       </c>
       <c r="BU22">
-        <v>3609.6080000000002</v>
+        <v>5640.7619999999997</v>
       </c>
       <c r="BV22">
-        <v>5640.7619999999997</v>
+        <v>13895.67</v>
       </c>
       <c r="BW22">
-        <v>13895.67</v>
+        <v>19293.32</v>
       </c>
       <c r="BX22">
-        <v>19293.32</v>
+        <v>21948.29</v>
       </c>
       <c r="BY22">
-        <v>21948.29</v>
+        <v>24978.57</v>
       </c>
       <c r="BZ22">
-        <v>24978.57</v>
+        <v>40519.85</v>
       </c>
       <c r="CA22">
-        <v>40519.85</v>
+        <v>42947.199999999997</v>
       </c>
       <c r="CB22">
-        <v>42947.199999999997</v>
+        <v>26121.91</v>
       </c>
       <c r="CC22">
-        <v>26121.91</v>
+        <v>21265.19</v>
       </c>
       <c r="CD22">
-        <v>21265.19</v>
+        <v>16786.11</v>
       </c>
       <c r="CE22">
-        <v>16786.11</v>
+        <v>8515.2129999999997</v>
       </c>
       <c r="CF22">
-        <v>8515.2129999999997</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG22">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH22">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI22">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ22">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK22">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL22">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM22">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN22">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO22">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP22">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ22">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR22">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:96">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -7301,115 +7281,112 @@
         <v>3072.8159999999998</v>
       </c>
       <c r="BI23">
-        <v>3072.8159999999998</v>
+        <v>2403.2440000000001</v>
       </c>
       <c r="BJ23">
-        <v>2403.2440000000001</v>
+        <v>1688.048</v>
       </c>
       <c r="BK23">
-        <v>1688.048</v>
+        <v>882.67349999999999</v>
       </c>
       <c r="BL23">
-        <v>882.67349999999999</v>
+        <v>568.72</v>
       </c>
       <c r="BM23">
-        <v>568.72</v>
+        <v>399.92500000000001</v>
       </c>
       <c r="BN23">
-        <v>399.92500000000001</v>
+        <v>300.07389999999998</v>
       </c>
       <c r="BO23">
-        <v>300.07389999999998</v>
+        <v>305.53550000000001</v>
       </c>
       <c r="BP23">
-        <v>305.53550000000001</v>
+        <v>380.46940000000001</v>
       </c>
       <c r="BQ23">
-        <v>380.46940000000001</v>
+        <v>675.04089999999997</v>
       </c>
       <c r="BR23">
-        <v>675.04089999999997</v>
+        <v>1190.5530000000001</v>
       </c>
       <c r="BS23">
-        <v>1190.5530000000001</v>
+        <v>2340.5329999999999</v>
       </c>
       <c r="BT23">
-        <v>2340.5329999999999</v>
+        <v>4922.1930000000002</v>
       </c>
       <c r="BU23">
-        <v>4922.1930000000002</v>
+        <v>7691.9480000000003</v>
       </c>
       <c r="BV23">
-        <v>7691.9480000000003</v>
+        <v>18948.64</v>
       </c>
       <c r="BW23">
-        <v>18948.64</v>
+        <v>26309.07</v>
       </c>
       <c r="BX23">
-        <v>26309.07</v>
+        <v>29929.49</v>
       </c>
       <c r="BY23">
-        <v>29929.49</v>
+        <v>34061.69</v>
       </c>
       <c r="BZ23">
-        <v>34061.69</v>
+        <v>55254.34</v>
       </c>
       <c r="CA23">
-        <v>55254.34</v>
+        <v>58564.36</v>
       </c>
       <c r="CB23">
-        <v>58564.36</v>
+        <v>35620.78</v>
       </c>
       <c r="CC23">
-        <v>35620.78</v>
+        <v>28997.98</v>
       </c>
       <c r="CD23">
-        <v>28997.98</v>
+        <v>22890.15</v>
       </c>
       <c r="CE23">
-        <v>22890.15</v>
+        <v>11611.65</v>
       </c>
       <c r="CF23">
-        <v>11611.65</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG23">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH23">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI23">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ23">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK23">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL23">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM23">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN23">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO23">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP23">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ23">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR23">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:96">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -7591,115 +7568,112 @@
         <v>3072.8159999999998</v>
       </c>
       <c r="BI24">
-        <v>3072.8159999999998</v>
+        <v>2403.2440000000001</v>
       </c>
       <c r="BJ24">
-        <v>2403.2440000000001</v>
+        <v>1688.048</v>
       </c>
       <c r="BK24">
-        <v>1688.048</v>
+        <v>882.67349999999999</v>
       </c>
       <c r="BL24">
-        <v>882.67349999999999</v>
+        <v>568.72</v>
       </c>
       <c r="BM24">
-        <v>568.72</v>
+        <v>399.92500000000001</v>
       </c>
       <c r="BN24">
-        <v>399.92500000000001</v>
+        <v>300.07389999999998</v>
       </c>
       <c r="BO24">
-        <v>300.07389999999998</v>
+        <v>305.53550000000001</v>
       </c>
       <c r="BP24">
-        <v>305.53550000000001</v>
+        <v>380.46940000000001</v>
       </c>
       <c r="BQ24">
-        <v>380.46940000000001</v>
+        <v>675.04089999999997</v>
       </c>
       <c r="BR24">
-        <v>675.04089999999997</v>
+        <v>1190.5530000000001</v>
       </c>
       <c r="BS24">
-        <v>1190.5530000000001</v>
+        <v>2340.5329999999999</v>
       </c>
       <c r="BT24">
-        <v>2340.5329999999999</v>
+        <v>4922.1930000000002</v>
       </c>
       <c r="BU24">
-        <v>4922.1930000000002</v>
+        <v>7691.9480000000003</v>
       </c>
       <c r="BV24">
-        <v>7691.9480000000003</v>
+        <v>18948.64</v>
       </c>
       <c r="BW24">
-        <v>18948.64</v>
+        <v>26309.07</v>
       </c>
       <c r="BX24">
-        <v>26309.07</v>
+        <v>29929.49</v>
       </c>
       <c r="BY24">
-        <v>29929.49</v>
+        <v>34061.69</v>
       </c>
       <c r="BZ24">
-        <v>34061.69</v>
+        <v>55254.34</v>
       </c>
       <c r="CA24">
-        <v>55254.34</v>
+        <v>58564.36</v>
       </c>
       <c r="CB24">
-        <v>58564.36</v>
+        <v>35620.78</v>
       </c>
       <c r="CC24">
-        <v>35620.78</v>
+        <v>28997.98</v>
       </c>
       <c r="CD24">
-        <v>28997.98</v>
+        <v>22890.15</v>
       </c>
       <c r="CE24">
-        <v>22890.15</v>
+        <v>11611.65</v>
       </c>
       <c r="CF24">
-        <v>11611.65</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG24">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH24">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI24">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ24">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK24">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL24">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM24">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN24">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO24">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP24">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ24">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR24">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:96">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -7881,115 +7855,112 @@
         <v>3127.547</v>
       </c>
       <c r="BI25">
-        <v>3127.547</v>
+        <v>2436.0419999999999</v>
       </c>
       <c r="BJ25">
-        <v>2436.0419999999999</v>
+        <v>1691.923</v>
       </c>
       <c r="BK25">
-        <v>1691.923</v>
+        <v>883.67619999999999</v>
       </c>
       <c r="BL25">
-        <v>883.67619999999999</v>
+        <v>569.36040000000003</v>
       </c>
       <c r="BM25">
-        <v>569.36040000000003</v>
+        <v>400.45659999999998</v>
       </c>
       <c r="BN25">
-        <v>400.45659999999998</v>
+        <v>300.69060000000002</v>
       </c>
       <c r="BO25">
-        <v>300.69060000000002</v>
+        <v>306.03629999999998</v>
       </c>
       <c r="BP25">
-        <v>306.03629999999998</v>
+        <v>381.01710000000003</v>
       </c>
       <c r="BQ25">
-        <v>381.01710000000003</v>
+        <v>675.75300000000004</v>
       </c>
       <c r="BR25">
-        <v>675.75300000000004</v>
+        <v>1192.5989999999999</v>
       </c>
       <c r="BS25">
-        <v>1192.5989999999999</v>
+        <v>2364.9180000000001</v>
       </c>
       <c r="BT25">
-        <v>2364.9180000000001</v>
+        <v>4284.5929999999998</v>
       </c>
       <c r="BU25">
-        <v>4284.5929999999998</v>
+        <v>7053.5129999999999</v>
       </c>
       <c r="BV25">
-        <v>7053.5129999999999</v>
+        <v>18070.169999999998</v>
       </c>
       <c r="BW25">
-        <v>18070.169999999998</v>
+        <v>25968.02</v>
       </c>
       <c r="BX25">
-        <v>25968.02</v>
+        <v>29813.439999999999</v>
       </c>
       <c r="BY25">
-        <v>29813.439999999999</v>
+        <v>33743.15</v>
       </c>
       <c r="BZ25">
-        <v>33743.15</v>
+        <v>54742.93</v>
       </c>
       <c r="CA25">
-        <v>54742.93</v>
+        <v>58020.3</v>
       </c>
       <c r="CB25">
-        <v>58020.3</v>
+        <v>35313.69</v>
       </c>
       <c r="CC25">
-        <v>35313.69</v>
+        <v>28833.14</v>
       </c>
       <c r="CD25">
-        <v>28833.14</v>
+        <v>22347.29</v>
       </c>
       <c r="CE25">
-        <v>22347.29</v>
+        <v>10863.56</v>
       </c>
       <c r="CF25">
-        <v>10863.56</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG25">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH25">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI25">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ25">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK25">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL25">
-        <v>171.57599999999999</v>
+        <v>168.7227</v>
       </c>
       <c r="CM25">
-        <v>168.7227</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN25">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO25">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP25">
-        <v>178.14840000000001</v>
+        <v>185.4315</v>
       </c>
       <c r="CQ25">
-        <v>185.4315</v>
-      </c>
-      <c r="CR25">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:96">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8171,115 +8142,112 @@
         <v>3175.578</v>
       </c>
       <c r="BI26">
-        <v>3175.578</v>
+        <v>2466.4690000000001</v>
       </c>
       <c r="BJ26">
-        <v>2466.4690000000001</v>
+        <v>1695.4780000000001</v>
       </c>
       <c r="BK26">
-        <v>1695.4780000000001</v>
+        <v>884.43700000000001</v>
       </c>
       <c r="BL26">
-        <v>884.43700000000001</v>
+        <v>569.86260000000004</v>
       </c>
       <c r="BM26">
-        <v>569.86260000000004</v>
+        <v>400.87119999999999</v>
       </c>
       <c r="BN26">
-        <v>400.87119999999999</v>
+        <v>301.12419999999997</v>
       </c>
       <c r="BO26">
-        <v>301.12419999999997</v>
+        <v>306.42559999999997</v>
       </c>
       <c r="BP26">
-        <v>306.42559999999997</v>
+        <v>381.4273</v>
       </c>
       <c r="BQ26">
-        <v>381.4273</v>
+        <v>676.30240000000003</v>
       </c>
       <c r="BR26">
-        <v>676.30240000000003</v>
+        <v>1194.24</v>
       </c>
       <c r="BS26">
-        <v>1194.24</v>
+        <v>2388.3200000000002</v>
       </c>
       <c r="BT26">
-        <v>2388.3200000000002</v>
+        <v>3817.201</v>
       </c>
       <c r="BU26">
-        <v>3817.201</v>
+        <v>6569.4709999999995</v>
       </c>
       <c r="BV26">
-        <v>6569.4709999999995</v>
+        <v>17378.64</v>
       </c>
       <c r="BW26">
-        <v>17378.64</v>
+        <v>25694.21</v>
       </c>
       <c r="BX26">
-        <v>25694.21</v>
+        <v>29725.32</v>
       </c>
       <c r="BY26">
-        <v>29725.32</v>
+        <v>33498.639999999999</v>
       </c>
       <c r="BZ26">
-        <v>33498.639999999999</v>
+        <v>54346.94</v>
       </c>
       <c r="CA26">
-        <v>54346.94</v>
+        <v>57598.05</v>
       </c>
       <c r="CB26">
-        <v>57598.05</v>
+        <v>35078.19</v>
       </c>
       <c r="CC26">
-        <v>35078.19</v>
+        <v>28701.48</v>
       </c>
       <c r="CD26">
-        <v>28701.48</v>
+        <v>21903.51</v>
       </c>
       <c r="CE26">
-        <v>21903.51</v>
+        <v>10297.24</v>
       </c>
       <c r="CF26">
-        <v>10297.24</v>
+        <v>205.47790000000001</v>
       </c>
       <c r="CG26">
-        <v>205.47790000000001</v>
+        <v>186.2364</v>
       </c>
       <c r="CH26">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI26">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ26">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK26">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL26">
-        <v>171.57599999999999</v>
+        <v>168.7227</v>
       </c>
       <c r="CM26">
-        <v>168.7227</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN26">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO26">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP26">
-        <v>178.14840000000001</v>
+        <v>185.4315</v>
       </c>
       <c r="CQ26">
-        <v>185.4315</v>
-      </c>
-      <c r="CR26">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:96">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8461,115 +8429,112 @@
         <v>2791.3249999999998</v>
       </c>
       <c r="BI27">
-        <v>2791.3249999999998</v>
+        <v>2236.7240000000002</v>
       </c>
       <c r="BJ27">
-        <v>2236.7240000000002</v>
+        <v>1678.9179999999999</v>
       </c>
       <c r="BK27">
-        <v>1678.9179999999999</v>
+        <v>882.67359999999996</v>
       </c>
       <c r="BL27">
-        <v>882.67359999999996</v>
+        <v>568.71389999999997</v>
       </c>
       <c r="BM27">
-        <v>568.71389999999997</v>
+        <v>399.91520000000003</v>
       </c>
       <c r="BN27">
-        <v>399.91520000000003</v>
+        <v>300.23689999999999</v>
       </c>
       <c r="BO27">
-        <v>300.23689999999999</v>
+        <v>305.53980000000001</v>
       </c>
       <c r="BP27">
-        <v>305.53980000000001</v>
+        <v>380.46339999999998</v>
       </c>
       <c r="BQ27">
-        <v>380.46339999999998</v>
+        <v>675.03689999999995</v>
       </c>
       <c r="BR27">
-        <v>675.03689999999995</v>
+        <v>1189.6289999999999</v>
       </c>
       <c r="BS27">
-        <v>1189.6289999999999</v>
+        <v>2231.4369999999999</v>
       </c>
       <c r="BT27">
-        <v>2231.4369999999999</v>
+        <v>16680.61</v>
       </c>
       <c r="BU27">
-        <v>16680.61</v>
+        <v>17646.23</v>
       </c>
       <c r="BV27">
-        <v>17646.23</v>
+        <v>26646.29</v>
       </c>
       <c r="BW27">
-        <v>26646.29</v>
+        <v>28092.26</v>
       </c>
       <c r="BX27">
-        <v>28092.26</v>
+        <v>30103.79</v>
       </c>
       <c r="BY27">
-        <v>30103.79</v>
+        <v>34320.01</v>
       </c>
       <c r="BZ27">
-        <v>34320.01</v>
+        <v>55241.09</v>
       </c>
       <c r="CA27">
-        <v>55241.09</v>
+        <v>58224.18</v>
       </c>
       <c r="CB27">
-        <v>58224.18</v>
+        <v>35801.81</v>
       </c>
       <c r="CC27">
-        <v>35801.81</v>
+        <v>29619.42</v>
       </c>
       <c r="CD27">
-        <v>29619.42</v>
+        <v>27277.32</v>
       </c>
       <c r="CE27">
-        <v>27277.32</v>
+        <v>21475.83</v>
       </c>
       <c r="CF27">
-        <v>21475.83</v>
+        <v>205.47669999999999</v>
       </c>
       <c r="CG27">
-        <v>205.47669999999999</v>
+        <v>186.2364</v>
       </c>
       <c r="CH27">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI27">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ27">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK27">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL27">
-        <v>171.57599999999999</v>
+        <v>168.7227</v>
       </c>
       <c r="CM27">
-        <v>168.7227</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN27">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO27">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP27">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ27">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR27">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:96">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -8751,115 +8716,112 @@
         <v>2786.9180000000001</v>
       </c>
       <c r="BI28">
-        <v>2786.9180000000001</v>
+        <v>2236.1779999999999</v>
       </c>
       <c r="BJ28">
-        <v>2236.1779999999999</v>
+        <v>1678.9179999999999</v>
       </c>
       <c r="BK28">
-        <v>1678.9179999999999</v>
+        <v>882.67359999999996</v>
       </c>
       <c r="BL28">
-        <v>882.67359999999996</v>
+        <v>568.7079</v>
       </c>
       <c r="BM28">
-        <v>568.7079</v>
+        <v>399.9058</v>
       </c>
       <c r="BN28">
-        <v>399.9058</v>
+        <v>300.35430000000002</v>
       </c>
       <c r="BO28">
-        <v>300.35430000000002</v>
+        <v>305.54300000000001</v>
       </c>
       <c r="BP28">
-        <v>305.54300000000001</v>
+        <v>380.45749999999998</v>
       </c>
       <c r="BQ28">
-        <v>380.45749999999998</v>
+        <v>675.03330000000005</v>
       </c>
       <c r="BR28">
-        <v>675.03330000000005</v>
+        <v>1189.6279999999999</v>
       </c>
       <c r="BS28">
-        <v>1189.6279999999999</v>
+        <v>2231.4279999999999</v>
       </c>
       <c r="BT28">
-        <v>2231.4279999999999</v>
+        <v>27615.83</v>
       </c>
       <c r="BU28">
-        <v>27615.83</v>
+        <v>25498.59</v>
       </c>
       <c r="BV28">
-        <v>25498.59</v>
+        <v>29348.95</v>
       </c>
       <c r="BW28">
-        <v>29348.95</v>
+        <v>28601.37</v>
       </c>
       <c r="BX28">
-        <v>28601.37</v>
+        <v>30308.42</v>
       </c>
       <c r="BY28">
-        <v>30308.42</v>
+        <v>34595.730000000003</v>
       </c>
       <c r="BZ28">
-        <v>34595.730000000003</v>
+        <v>55228.51</v>
       </c>
       <c r="CA28">
-        <v>55228.51</v>
+        <v>57887.57</v>
       </c>
       <c r="CB28">
-        <v>57887.57</v>
+        <v>36009.29</v>
       </c>
       <c r="CC28">
-        <v>36009.29</v>
+        <v>29970.15</v>
       </c>
       <c r="CD28">
-        <v>29970.15</v>
+        <v>28549.599999999999</v>
       </c>
       <c r="CE28">
-        <v>28549.599999999999</v>
+        <v>28700.25</v>
       </c>
       <c r="CF28">
-        <v>28700.25</v>
+        <v>205.47669999999999</v>
       </c>
       <c r="CG28">
-        <v>205.47669999999999</v>
+        <v>186.2364</v>
       </c>
       <c r="CH28">
-        <v>186.2364</v>
+        <v>205.3297</v>
       </c>
       <c r="CI28">
-        <v>205.3297</v>
+        <v>194.5164</v>
       </c>
       <c r="CJ28">
-        <v>194.5164</v>
+        <v>190.48249999999999</v>
       </c>
       <c r="CK28">
-        <v>190.48249999999999</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL28">
-        <v>171.57599999999999</v>
+        <v>168.7227</v>
       </c>
       <c r="CM28">
-        <v>168.7227</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN28">
-        <v>165.71100000000001</v>
+        <v>163.82259999999999</v>
       </c>
       <c r="CO28">
-        <v>163.82259999999999</v>
+        <v>178.14840000000001</v>
       </c>
       <c r="CP28">
-        <v>178.14840000000001</v>
+        <v>185.43049999999999</v>
       </c>
       <c r="CQ28">
-        <v>185.43049999999999</v>
-      </c>
-      <c r="CR28">
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:96">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -9041,115 +9003,112 @@
         <v>13845.5</v>
       </c>
       <c r="BI29">
-        <v>13845.5</v>
+        <v>10873.69</v>
       </c>
       <c r="BJ29">
-        <v>10873.69</v>
+        <v>7027.23</v>
       </c>
       <c r="BK29">
-        <v>7027.23</v>
+        <v>2455.335</v>
       </c>
       <c r="BL29">
-        <v>2455.335</v>
+        <v>653.94830000000002</v>
       </c>
       <c r="BM29">
-        <v>653.94830000000002</v>
+        <v>400.0883</v>
       </c>
       <c r="BN29">
-        <v>400.0883</v>
+        <v>300.10289999999998</v>
       </c>
       <c r="BO29">
-        <v>300.10289999999998</v>
+        <v>305.53370000000001</v>
       </c>
       <c r="BP29">
-        <v>305.53370000000001</v>
+        <v>388.9699</v>
       </c>
       <c r="BQ29">
-        <v>388.9699</v>
+        <v>1117.152</v>
       </c>
       <c r="BR29">
-        <v>1117.152</v>
+        <v>4520.24</v>
       </c>
       <c r="BS29">
-        <v>4520.24</v>
+        <v>10445.98</v>
       </c>
       <c r="BT29">
-        <v>10445.98</v>
+        <v>0</v>
       </c>
       <c r="BU29">
         <v>0</v>
       </c>
       <c r="BV29">
+        <v>1.805E-3</v>
+      </c>
+      <c r="BW29">
+        <v>3040.2620000000002</v>
+      </c>
+      <c r="BX29">
+        <v>16319.47</v>
+      </c>
+      <c r="BY29">
+        <v>31605.09</v>
+      </c>
+      <c r="BZ29">
+        <v>54386.559999999998</v>
+      </c>
+      <c r="CA29">
+        <v>59059.95</v>
+      </c>
+      <c r="CB29">
+        <v>33027.46</v>
+      </c>
+      <c r="CC29">
+        <v>13160.04</v>
+      </c>
+      <c r="CD29">
+        <v>992.34479999999996</v>
+      </c>
+      <c r="CE29">
         <v>0</v>
       </c>
-      <c r="BW29">
-        <v>1.805E-3</v>
-      </c>
-      <c r="BX29">
-        <v>3040.2620000000002</v>
-      </c>
-      <c r="BY29">
-        <v>16319.47</v>
-      </c>
-      <c r="BZ29">
-        <v>31605.09</v>
-      </c>
-      <c r="CA29">
-        <v>54386.559999999998</v>
-      </c>
-      <c r="CB29">
-        <v>59059.95</v>
-      </c>
-      <c r="CC29">
-        <v>33027.46</v>
-      </c>
-      <c r="CD29">
-        <v>13160.04</v>
-      </c>
-      <c r="CE29">
-        <v>992.34479999999996</v>
-      </c>
       <c r="CF29">
-        <v>0</v>
+        <v>205.47890000000001</v>
       </c>
       <c r="CG29">
-        <v>205.47890000000001</v>
+        <v>186.2319</v>
       </c>
       <c r="CH29">
-        <v>186.2319</v>
+        <v>205.3364</v>
       </c>
       <c r="CI29">
-        <v>205.3364</v>
+        <v>194.5256</v>
       </c>
       <c r="CJ29">
-        <v>194.5256</v>
+        <v>190.4829</v>
       </c>
       <c r="CK29">
-        <v>190.4829</v>
+        <v>171.57599999999999</v>
       </c>
       <c r="CL29">
-        <v>171.57599999999999</v>
+        <v>168.72290000000001</v>
       </c>
       <c r="CM29">
-        <v>168.72290000000001</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="CN29">
-        <v>165.71100000000001</v>
+        <v>163.82210000000001</v>
       </c>
       <c r="CO29">
-        <v>163.82210000000001</v>
+        <v>178.15530000000001</v>
       </c>
       <c r="CP29">
-        <v>178.15530000000001</v>
+        <v>185.4418</v>
       </c>
       <c r="CQ29">
-        <v>185.4418</v>
-      </c>
-      <c r="CR29">
         <v>201.4521</v>
       </c>
     </row>
-    <row r="30" spans="1:96">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -9331,115 +9290,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI30">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ30">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK30">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL30">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM30">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN30">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO30">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP30">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ30">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR30">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS30">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT30">
-        <v>180.11490000000001</v>
+        <v>13000.89</v>
       </c>
       <c r="BU30">
-        <v>13000.89</v>
+        <v>13553.2</v>
       </c>
       <c r="BV30">
-        <v>13553.2</v>
+        <v>19923.07</v>
       </c>
       <c r="BW30">
-        <v>19923.07</v>
+        <v>20459.189999999999</v>
       </c>
       <c r="BX30">
-        <v>20459.189999999999</v>
+        <v>22002.3</v>
       </c>
       <c r="BY30">
-        <v>22002.3</v>
+        <v>26080.59</v>
       </c>
       <c r="BZ30">
-        <v>26080.59</v>
+        <v>43816.98</v>
       </c>
       <c r="CA30">
-        <v>43816.98</v>
+        <v>46593.64</v>
       </c>
       <c r="CB30">
-        <v>46593.64</v>
+        <v>27299.01</v>
       </c>
       <c r="CC30">
-        <v>27299.01</v>
+        <v>21584.46</v>
       </c>
       <c r="CD30">
-        <v>21584.46</v>
+        <v>19760.849999999999</v>
       </c>
       <c r="CE30">
-        <v>19760.849999999999</v>
+        <v>16308.01</v>
       </c>
       <c r="CF30">
-        <v>16308.01</v>
+        <v>247.3357</v>
       </c>
       <c r="CG30">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH30">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI30">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ30">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK30">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL30">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM30">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN30">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO30">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP30">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ30">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR30">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:96">
+    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -9621,115 +9577,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI31">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ31">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK31">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL31">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM31">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN31">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO31">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP31">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ31">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR31">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS31">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT31">
-        <v>180.11490000000001</v>
+        <v>13000.89</v>
       </c>
       <c r="BU31">
-        <v>13000.89</v>
+        <v>13553.2</v>
       </c>
       <c r="BV31">
-        <v>13553.2</v>
+        <v>19923.07</v>
       </c>
       <c r="BW31">
-        <v>19923.07</v>
+        <v>20459.189999999999</v>
       </c>
       <c r="BX31">
-        <v>20459.189999999999</v>
+        <v>22002.3</v>
       </c>
       <c r="BY31">
-        <v>22002.3</v>
+        <v>26080.59</v>
       </c>
       <c r="BZ31">
-        <v>26080.59</v>
+        <v>43816.98</v>
       </c>
       <c r="CA31">
-        <v>43816.98</v>
+        <v>46593.64</v>
       </c>
       <c r="CB31">
-        <v>46593.64</v>
+        <v>27299.01</v>
       </c>
       <c r="CC31">
-        <v>27299.01</v>
+        <v>21584.46</v>
       </c>
       <c r="CD31">
-        <v>21584.46</v>
+        <v>19760.849999999999</v>
       </c>
       <c r="CE31">
-        <v>19760.849999999999</v>
+        <v>16308.01</v>
       </c>
       <c r="CF31">
-        <v>16308.01</v>
+        <v>247.3357</v>
       </c>
       <c r="CG31">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH31">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI31">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ31">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK31">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL31">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM31">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN31">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO31">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP31">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ31">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR31">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:96">
+    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -9911,115 +9864,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI32">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ32">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK32">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL32">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM32">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN32">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO32">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP32">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ32">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR32">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS32">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT32">
-        <v>180.11490000000001</v>
+        <v>13000.89</v>
       </c>
       <c r="BU32">
-        <v>13000.89</v>
+        <v>13553.2</v>
       </c>
       <c r="BV32">
-        <v>13553.2</v>
+        <v>19923.07</v>
       </c>
       <c r="BW32">
-        <v>19923.07</v>
+        <v>20459.189999999999</v>
       </c>
       <c r="BX32">
-        <v>20459.189999999999</v>
+        <v>22002.3</v>
       </c>
       <c r="BY32">
-        <v>22002.3</v>
+        <v>26080.59</v>
       </c>
       <c r="BZ32">
-        <v>26080.59</v>
+        <v>43816.98</v>
       </c>
       <c r="CA32">
-        <v>43816.98</v>
+        <v>46593.64</v>
       </c>
       <c r="CB32">
-        <v>46593.64</v>
+        <v>27299.01</v>
       </c>
       <c r="CC32">
-        <v>27299.01</v>
+        <v>21584.46</v>
       </c>
       <c r="CD32">
-        <v>21584.46</v>
+        <v>19760.849999999999</v>
       </c>
       <c r="CE32">
-        <v>19760.849999999999</v>
+        <v>16308.01</v>
       </c>
       <c r="CF32">
-        <v>16308.01</v>
+        <v>247.3357</v>
       </c>
       <c r="CG32">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH32">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI32">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ32">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK32">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL32">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM32">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN32">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO32">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP32">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ32">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR32">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:96">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -10201,115 +10151,112 @@
         <v>216.1816</v>
       </c>
       <c r="BI33">
-        <v>216.1816</v>
+        <v>177.47190000000001</v>
       </c>
       <c r="BJ33">
-        <v>177.47190000000001</v>
+        <v>188.8826</v>
       </c>
       <c r="BK33">
-        <v>188.8826</v>
+        <v>152.3058</v>
       </c>
       <c r="BL33">
-        <v>152.3058</v>
+        <v>123.3319</v>
       </c>
       <c r="BM33">
-        <v>123.3319</v>
+        <v>132.7525</v>
       </c>
       <c r="BN33">
-        <v>132.7525</v>
+        <v>116.6297</v>
       </c>
       <c r="BO33">
-        <v>116.6297</v>
+        <v>226.07560000000001</v>
       </c>
       <c r="BP33">
-        <v>226.07560000000001</v>
+        <v>128.60210000000001</v>
       </c>
       <c r="BQ33">
-        <v>128.60210000000001</v>
+        <v>144.37459999999999</v>
       </c>
       <c r="BR33">
-        <v>144.37459999999999</v>
+        <v>136.78020000000001</v>
       </c>
       <c r="BS33">
-        <v>136.78020000000001</v>
+        <v>193.5712</v>
       </c>
       <c r="BT33">
-        <v>193.5712</v>
+        <v>12175.79</v>
       </c>
       <c r="BU33">
-        <v>12175.79</v>
+        <v>12924.27</v>
       </c>
       <c r="BV33">
-        <v>12924.27</v>
+        <v>19712.689999999999</v>
       </c>
       <c r="BW33">
-        <v>19712.689999999999</v>
+        <v>20588.37</v>
       </c>
       <c r="BX33">
-        <v>20588.37</v>
+        <v>22132.38</v>
       </c>
       <c r="BY33">
-        <v>22132.38</v>
+        <v>26031.279999999999</v>
       </c>
       <c r="BZ33">
-        <v>26031.279999999999</v>
+        <v>43567.57</v>
       </c>
       <c r="CA33">
-        <v>43567.57</v>
+        <v>46268.38</v>
       </c>
       <c r="CB33">
-        <v>46268.38</v>
+        <v>27239.06</v>
       </c>
       <c r="CC33">
-        <v>27239.06</v>
+        <v>21704.79</v>
       </c>
       <c r="CD33">
-        <v>21704.79</v>
+        <v>19757.61</v>
       </c>
       <c r="CE33">
-        <v>19757.61</v>
+        <v>15724.25</v>
       </c>
       <c r="CF33">
-        <v>15724.25</v>
+        <v>247.33580000000001</v>
       </c>
       <c r="CG33">
-        <v>247.33580000000001</v>
+        <v>224.1679</v>
       </c>
       <c r="CH33">
-        <v>224.1679</v>
+        <v>247.1559</v>
       </c>
       <c r="CI33">
-        <v>247.1559</v>
+        <v>234.13980000000001</v>
       </c>
       <c r="CJ33">
-        <v>234.13980000000001</v>
+        <v>229.28469999999999</v>
       </c>
       <c r="CK33">
-        <v>229.28469999999999</v>
+        <v>206.52260000000001</v>
       </c>
       <c r="CL33">
-        <v>206.52260000000001</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM33">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN33">
-        <v>199.47069999999999</v>
+        <v>197.19049999999999</v>
       </c>
       <c r="CO33">
-        <v>197.19049999999999</v>
+        <v>214.4306</v>
       </c>
       <c r="CP33">
-        <v>214.4306</v>
+        <v>223.1996</v>
       </c>
       <c r="CQ33">
-        <v>223.1996</v>
-      </c>
-      <c r="CR33">
         <v>242.46709999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:96">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -10491,115 +10438,112 @@
         <v>230.3631</v>
       </c>
       <c r="BI34">
-        <v>230.3631</v>
+        <v>191.4522</v>
       </c>
       <c r="BJ34">
-        <v>191.4522</v>
+        <v>202.86519999999999</v>
       </c>
       <c r="BK34">
-        <v>202.86519999999999</v>
+        <v>166.55529999999999</v>
       </c>
       <c r="BL34">
-        <v>166.55529999999999</v>
+        <v>138.47730000000001</v>
       </c>
       <c r="BM34">
-        <v>138.47730000000001</v>
+        <v>147.59729999999999</v>
       </c>
       <c r="BN34">
-        <v>147.59729999999999</v>
+        <v>132.25190000000001</v>
       </c>
       <c r="BO34">
-        <v>132.25190000000001</v>
+        <v>239.26179999999999</v>
       </c>
       <c r="BP34">
-        <v>239.26179999999999</v>
+        <v>143.97219999999999</v>
       </c>
       <c r="BQ34">
-        <v>143.97219999999999</v>
+        <v>159.0932</v>
       </c>
       <c r="BR34">
-        <v>159.0932</v>
+        <v>151.79169999999999</v>
       </c>
       <c r="BS34">
-        <v>151.79169999999999</v>
+        <v>207.87270000000001</v>
       </c>
       <c r="BT34">
-        <v>207.87270000000001</v>
+        <v>11312.83</v>
       </c>
       <c r="BU34">
-        <v>11312.83</v>
+        <v>12210.24</v>
       </c>
       <c r="BV34">
-        <v>12210.24</v>
+        <v>19245.96</v>
       </c>
       <c r="BW34">
-        <v>19245.96</v>
+        <v>20434.16</v>
       </c>
       <c r="BX34">
-        <v>20434.16</v>
+        <v>22013</v>
       </c>
       <c r="BY34">
-        <v>22013</v>
+        <v>25812.89</v>
       </c>
       <c r="BZ34">
-        <v>25812.89</v>
+        <v>43257.8</v>
       </c>
       <c r="CA34">
-        <v>43257.8</v>
+        <v>45936.27</v>
       </c>
       <c r="CB34">
-        <v>45936.27</v>
+        <v>27019.55</v>
       </c>
       <c r="CC34">
-        <v>27019.55</v>
+        <v>21565.4</v>
       </c>
       <c r="CD34">
-        <v>21565.4</v>
+        <v>19493.8</v>
       </c>
       <c r="CE34">
-        <v>19493.8</v>
+        <v>15030.55</v>
       </c>
       <c r="CF34">
-        <v>15030.55</v>
+        <v>247.33609999999999</v>
       </c>
       <c r="CG34">
-        <v>247.33609999999999</v>
+        <v>224.16669999999999</v>
       </c>
       <c r="CH34">
-        <v>224.16669999999999</v>
+        <v>247.15629999999999</v>
       </c>
       <c r="CI34">
-        <v>247.15629999999999</v>
+        <v>234.14230000000001</v>
       </c>
       <c r="CJ34">
-        <v>234.14230000000001</v>
+        <v>229.28460000000001</v>
       </c>
       <c r="CK34">
-        <v>229.28460000000001</v>
+        <v>206.52250000000001</v>
       </c>
       <c r="CL34">
-        <v>206.52250000000001</v>
+        <v>203.084</v>
       </c>
       <c r="CM34">
-        <v>203.084</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN34">
-        <v>199.47069999999999</v>
+        <v>197.19329999999999</v>
       </c>
       <c r="CO34">
-        <v>197.19329999999999</v>
+        <v>214.43119999999999</v>
       </c>
       <c r="CP34">
-        <v>214.43119999999999</v>
+        <v>223.1994</v>
       </c>
       <c r="CQ34">
-        <v>223.1994</v>
-      </c>
-      <c r="CR34">
         <v>242.47</v>
       </c>
     </row>
-    <row r="35" spans="1:96">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -10781,115 +10725,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI35">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ35">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK35">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL35">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM35">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN35">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO35">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP35">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ35">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR35">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS35">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT35">
-        <v>180.11490000000001</v>
+        <v>11000.75</v>
       </c>
       <c r="BU35">
-        <v>11000.75</v>
+        <v>11468.09</v>
       </c>
       <c r="BV35">
-        <v>11468.09</v>
+        <v>16857.990000000002</v>
       </c>
       <c r="BW35">
-        <v>16857.990000000002</v>
+        <v>17311.62</v>
       </c>
       <c r="BX35">
-        <v>17311.62</v>
+        <v>18617.330000000002</v>
       </c>
       <c r="BY35">
-        <v>18617.330000000002</v>
+        <v>22068.19</v>
       </c>
       <c r="BZ35">
-        <v>22068.19</v>
+        <v>37075.910000000003</v>
       </c>
       <c r="CA35">
-        <v>37075.910000000003</v>
+        <v>39425.39</v>
       </c>
       <c r="CB35">
-        <v>39425.39</v>
+        <v>23099.16</v>
       </c>
       <c r="CC35">
-        <v>23099.16</v>
+        <v>18263.78</v>
       </c>
       <c r="CD35">
-        <v>18263.78</v>
+        <v>16720.72</v>
       </c>
       <c r="CE35">
-        <v>16720.72</v>
+        <v>13799.09</v>
       </c>
       <c r="CF35">
-        <v>13799.09</v>
+        <v>247.3357</v>
       </c>
       <c r="CG35">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH35">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI35">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ35">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK35">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL35">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM35">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN35">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO35">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP35">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ35">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR35">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:96">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -11071,115 +11012,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI36">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ36">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK36">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL36">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM36">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN36">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO36">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP36">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ36">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR36">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS36">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT36">
-        <v>180.11490000000001</v>
+        <v>9533.9869999999992</v>
       </c>
       <c r="BU36">
-        <v>9533.9869999999992</v>
+        <v>9939.0110000000004</v>
       </c>
       <c r="BV36">
-        <v>9939.0110000000004</v>
+        <v>14610.25</v>
       </c>
       <c r="BW36">
-        <v>14610.25</v>
+        <v>15003.41</v>
       </c>
       <c r="BX36">
-        <v>15003.41</v>
+        <v>16135.02</v>
       </c>
       <c r="BY36">
-        <v>16135.02</v>
+        <v>19125.77</v>
       </c>
       <c r="BZ36">
-        <v>19125.77</v>
+        <v>32132.45</v>
       </c>
       <c r="CA36">
-        <v>32132.45</v>
+        <v>34168.67</v>
       </c>
       <c r="CB36">
-        <v>34168.67</v>
+        <v>20019.28</v>
       </c>
       <c r="CC36">
-        <v>20019.28</v>
+        <v>15828.61</v>
       </c>
       <c r="CD36">
-        <v>15828.61</v>
+        <v>14491.29</v>
       </c>
       <c r="CE36">
-        <v>14491.29</v>
+        <v>11959.21</v>
       </c>
       <c r="CF36">
-        <v>11959.21</v>
+        <v>247.3357</v>
       </c>
       <c r="CG36">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH36">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI36">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ36">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK36">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL36">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM36">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN36">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO36">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP36">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ36">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR36">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:96">
+    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -11361,115 +11299,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI37">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ37">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK37">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL37">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM37">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN37">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO37">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP37">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ37">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR37">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS37">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT37">
-        <v>180.11490000000001</v>
+        <v>13000.89</v>
       </c>
       <c r="BU37">
-        <v>13000.89</v>
+        <v>13553.2</v>
       </c>
       <c r="BV37">
-        <v>13553.2</v>
+        <v>19923.07</v>
       </c>
       <c r="BW37">
-        <v>19923.07</v>
+        <v>20459.189999999999</v>
       </c>
       <c r="BX37">
-        <v>20459.189999999999</v>
+        <v>22002.3</v>
       </c>
       <c r="BY37">
-        <v>22002.3</v>
+        <v>26080.59</v>
       </c>
       <c r="BZ37">
-        <v>26080.59</v>
+        <v>43816.98</v>
       </c>
       <c r="CA37">
-        <v>43816.98</v>
+        <v>46593.64</v>
       </c>
       <c r="CB37">
-        <v>46593.64</v>
+        <v>27299.01</v>
       </c>
       <c r="CC37">
-        <v>27299.01</v>
+        <v>21584.46</v>
       </c>
       <c r="CD37">
-        <v>21584.46</v>
+        <v>19760.849999999999</v>
       </c>
       <c r="CE37">
-        <v>19760.849999999999</v>
+        <v>16308.01</v>
       </c>
       <c r="CF37">
-        <v>16308.01</v>
+        <v>247.3357</v>
       </c>
       <c r="CG37">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH37">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI37">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ37">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK37">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL37">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM37">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN37">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO37">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP37">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ37">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR37">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:96">
+    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -11651,115 +11586,112 @@
         <v>202.32069999999999</v>
       </c>
       <c r="BI38">
-        <v>202.32069999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ38">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK38">
-        <v>175.41540000000001</v>
+        <v>138.34809999999999</v>
       </c>
       <c r="BL38">
-        <v>138.34809999999999</v>
+        <v>108.6245</v>
       </c>
       <c r="BM38">
-        <v>108.6245</v>
+        <v>119.13590000000001</v>
       </c>
       <c r="BN38">
-        <v>119.13590000000001</v>
+        <v>101.8563</v>
       </c>
       <c r="BO38">
-        <v>101.8563</v>
+        <v>213.1628</v>
       </c>
       <c r="BP38">
-        <v>213.1628</v>
+        <v>114.96469999999999</v>
       </c>
       <c r="BQ38">
-        <v>114.96469999999999</v>
+        <v>130.2953</v>
       </c>
       <c r="BR38">
-        <v>130.2953</v>
+        <v>123.5608</v>
       </c>
       <c r="BS38">
-        <v>123.5608</v>
+        <v>180.11490000000001</v>
       </c>
       <c r="BT38">
-        <v>180.11490000000001</v>
+        <v>13000.89</v>
       </c>
       <c r="BU38">
-        <v>13000.89</v>
+        <v>13553.2</v>
       </c>
       <c r="BV38">
-        <v>13553.2</v>
+        <v>19923.07</v>
       </c>
       <c r="BW38">
-        <v>19923.07</v>
+        <v>20459.189999999999</v>
       </c>
       <c r="BX38">
-        <v>20459.189999999999</v>
+        <v>22002.3</v>
       </c>
       <c r="BY38">
-        <v>22002.3</v>
+        <v>26080.59</v>
       </c>
       <c r="BZ38">
-        <v>26080.59</v>
+        <v>43816.98</v>
       </c>
       <c r="CA38">
-        <v>43816.98</v>
+        <v>46593.64</v>
       </c>
       <c r="CB38">
-        <v>46593.64</v>
+        <v>27299.01</v>
       </c>
       <c r="CC38">
-        <v>27299.01</v>
+        <v>21584.46</v>
       </c>
       <c r="CD38">
-        <v>21584.46</v>
+        <v>19760.849999999999</v>
       </c>
       <c r="CE38">
-        <v>19760.849999999999</v>
+        <v>16308.01</v>
       </c>
       <c r="CF38">
-        <v>16308.01</v>
+        <v>247.3357</v>
       </c>
       <c r="CG38">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH38">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI38">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ38">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK38">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL38">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM38">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN38">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO38">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP38">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ38">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR38">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:96">
+    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -11941,115 +11873,112 @@
         <v>203.74619999999999</v>
       </c>
       <c r="BI39">
-        <v>203.74619999999999</v>
+        <v>165.3382</v>
       </c>
       <c r="BJ39">
-        <v>165.3382</v>
+        <v>175.72200000000001</v>
       </c>
       <c r="BK39">
-        <v>175.72200000000001</v>
+        <v>138.66229999999999</v>
       </c>
       <c r="BL39">
-        <v>138.66229999999999</v>
+        <v>108.9615</v>
       </c>
       <c r="BM39">
-        <v>108.9615</v>
+        <v>119.5552</v>
       </c>
       <c r="BN39">
-        <v>119.5552</v>
+        <v>102.3879</v>
       </c>
       <c r="BO39">
-        <v>102.3879</v>
+        <v>213.6011</v>
       </c>
       <c r="BP39">
-        <v>213.6011</v>
+        <v>115.3784</v>
       </c>
       <c r="BQ39">
-        <v>115.3784</v>
+        <v>130.6343</v>
       </c>
       <c r="BR39">
-        <v>130.6343</v>
+        <v>123.7094</v>
       </c>
       <c r="BS39">
-        <v>123.7094</v>
+        <v>180.50909999999999</v>
       </c>
       <c r="BT39">
-        <v>180.50909999999999</v>
+        <v>12315.02</v>
       </c>
       <c r="BU39">
-        <v>12315.02</v>
+        <v>13004.41</v>
       </c>
       <c r="BV39">
-        <v>13004.41</v>
+        <v>19613.53</v>
       </c>
       <c r="BW39">
-        <v>19613.53</v>
+        <v>20356.91</v>
       </c>
       <c r="BX39">
-        <v>20356.91</v>
+        <v>21872.94</v>
       </c>
       <c r="BY39">
-        <v>21872.94</v>
+        <v>25803.79</v>
       </c>
       <c r="BZ39">
-        <v>25803.79</v>
+        <v>43391.32</v>
       </c>
       <c r="CA39">
-        <v>43391.32</v>
+        <v>46133.79</v>
       </c>
       <c r="CB39">
-        <v>46133.79</v>
+        <v>27025.43</v>
       </c>
       <c r="CC39">
-        <v>27025.43</v>
+        <v>21454.67</v>
       </c>
       <c r="CD39">
-        <v>21454.67</v>
+        <v>19570.61</v>
       </c>
       <c r="CE39">
-        <v>19570.61</v>
+        <v>15765.55</v>
       </c>
       <c r="CF39">
-        <v>15765.55</v>
+        <v>247.3357</v>
       </c>
       <c r="CG39">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH39">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI39">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ39">
-        <v>234.1378</v>
+        <v>229.28299999999999</v>
       </c>
       <c r="CK39">
-        <v>229.28299999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL39">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM39">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN39">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO39">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP39">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ39">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR39">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:96">
+    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -12231,115 +12160,112 @@
         <v>204.93450000000001</v>
       </c>
       <c r="BI40">
-        <v>204.93450000000001</v>
+        <v>166.22</v>
       </c>
       <c r="BJ40">
-        <v>166.22</v>
+        <v>175.96029999999999</v>
       </c>
       <c r="BK40">
-        <v>175.96029999999999</v>
+        <v>138.8956</v>
       </c>
       <c r="BL40">
-        <v>138.8956</v>
+        <v>109.23139999999999</v>
       </c>
       <c r="BM40">
-        <v>109.23139999999999</v>
+        <v>119.8796</v>
       </c>
       <c r="BN40">
-        <v>119.8796</v>
+        <v>102.8151</v>
       </c>
       <c r="BO40">
-        <v>102.8151</v>
+        <v>213.9425</v>
       </c>
       <c r="BP40">
-        <v>213.9425</v>
+        <v>115.6934</v>
       </c>
       <c r="BQ40">
-        <v>115.6934</v>
+        <v>130.893</v>
       </c>
       <c r="BR40">
-        <v>130.893</v>
+        <v>123.9526</v>
       </c>
       <c r="BS40">
-        <v>123.9526</v>
+        <v>181.09639999999999</v>
       </c>
       <c r="BT40">
-        <v>181.09639999999999</v>
+        <v>11773.59</v>
       </c>
       <c r="BU40">
-        <v>11773.59</v>
+        <v>12563.83</v>
       </c>
       <c r="BV40">
-        <v>12563.83</v>
+        <v>19345.84</v>
       </c>
       <c r="BW40">
-        <v>19345.84</v>
+        <v>20266.740000000002</v>
       </c>
       <c r="BX40">
-        <v>20266.740000000002</v>
+        <v>21776.27</v>
       </c>
       <c r="BY40">
-        <v>21776.27</v>
+        <v>25590.35</v>
       </c>
       <c r="BZ40">
-        <v>25590.35</v>
+        <v>43059.77</v>
       </c>
       <c r="CA40">
-        <v>43059.77</v>
+        <v>45776.75</v>
       </c>
       <c r="CB40">
-        <v>45776.75</v>
+        <v>26814.61</v>
       </c>
       <c r="CC40">
-        <v>26814.61</v>
+        <v>21354.73</v>
       </c>
       <c r="CD40">
-        <v>21354.73</v>
+        <v>19410.16</v>
       </c>
       <c r="CE40">
-        <v>19410.16</v>
+        <v>15335.57</v>
       </c>
       <c r="CF40">
-        <v>15335.57</v>
+        <v>247.3357</v>
       </c>
       <c r="CG40">
-        <v>247.3357</v>
+        <v>224.16839999999999</v>
       </c>
       <c r="CH40">
-        <v>224.16839999999999</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI40">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ40">
-        <v>234.1378</v>
+        <v>229.28299999999999</v>
       </c>
       <c r="CK40">
-        <v>229.28299999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL40">
-        <v>206.52269999999999</v>
+        <v>203.08340000000001</v>
       </c>
       <c r="CM40">
-        <v>203.08340000000001</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN40">
-        <v>199.47069999999999</v>
+        <v>197.19220000000001</v>
       </c>
       <c r="CO40">
-        <v>197.19220000000001</v>
+        <v>214.4333</v>
       </c>
       <c r="CP40">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ40">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR40">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:96">
+    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -12521,115 +12447,112 @@
         <v>199.89859999999999</v>
       </c>
       <c r="BI41">
-        <v>199.89859999999999</v>
+        <v>164.51580000000001</v>
       </c>
       <c r="BJ41">
-        <v>164.51580000000001</v>
+        <v>175.41540000000001</v>
       </c>
       <c r="BK41">
-        <v>175.41540000000001</v>
+        <v>138.34819999999999</v>
       </c>
       <c r="BL41">
-        <v>138.34819999999999</v>
+        <v>108.6165</v>
       </c>
       <c r="BM41">
-        <v>108.6165</v>
+        <v>119.1212</v>
       </c>
       <c r="BN41">
-        <v>119.1212</v>
+        <v>102.048</v>
       </c>
       <c r="BO41">
-        <v>102.048</v>
+        <v>213.17410000000001</v>
       </c>
       <c r="BP41">
-        <v>213.17410000000001</v>
+        <v>114.9558</v>
       </c>
       <c r="BQ41">
-        <v>114.9558</v>
+        <v>130.28989999999999</v>
       </c>
       <c r="BR41">
-        <v>130.28989999999999</v>
+        <v>123.55970000000001</v>
       </c>
       <c r="BS41">
-        <v>123.55970000000001</v>
+        <v>180.10409999999999</v>
       </c>
       <c r="BT41">
-        <v>180.10409999999999</v>
+        <v>20784.349999999999</v>
       </c>
       <c r="BU41">
-        <v>20784.349999999999</v>
+        <v>18924.73</v>
       </c>
       <c r="BV41">
-        <v>18924.73</v>
+        <v>21149.39</v>
       </c>
       <c r="BW41">
-        <v>21149.39</v>
+        <v>20728.18</v>
       </c>
       <c r="BX41">
-        <v>20728.18</v>
+        <v>22360.22</v>
       </c>
       <c r="BY41">
-        <v>22360.22</v>
+        <v>26372.720000000001</v>
       </c>
       <c r="BZ41">
-        <v>26372.720000000001</v>
+        <v>43822.91</v>
       </c>
       <c r="CA41">
-        <v>43822.91</v>
+        <v>46266.52</v>
       </c>
       <c r="CB41">
-        <v>46266.52</v>
+        <v>27533.62</v>
       </c>
       <c r="CC41">
-        <v>27533.62</v>
+        <v>22000.87</v>
       </c>
       <c r="CD41">
-        <v>22000.87</v>
+        <v>20611.36</v>
       </c>
       <c r="CE41">
-        <v>20611.36</v>
+        <v>21063.38</v>
       </c>
       <c r="CF41">
-        <v>21063.38</v>
+        <v>247.3357</v>
       </c>
       <c r="CG41">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH41">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI41">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ41">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK41">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL41">
-        <v>206.52269999999999</v>
+        <v>203.08340000000001</v>
       </c>
       <c r="CM41">
-        <v>203.08340000000001</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN41">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO41">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP41">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ41">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR41">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:96">
+    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -12811,115 +12734,112 @@
         <v>199.89879999999999</v>
       </c>
       <c r="BI42">
-        <v>199.89879999999999</v>
+        <v>164.51589999999999</v>
       </c>
       <c r="BJ42">
-        <v>164.51589999999999</v>
+        <v>175.41550000000001</v>
       </c>
       <c r="BK42">
-        <v>175.41550000000001</v>
+        <v>138.34819999999999</v>
       </c>
       <c r="BL42">
-        <v>138.34819999999999</v>
+        <v>108.6095</v>
       </c>
       <c r="BM42">
-        <v>108.6095</v>
+        <v>119.107</v>
       </c>
       <c r="BN42">
-        <v>119.107</v>
+        <v>102.2948</v>
       </c>
       <c r="BO42">
-        <v>102.2948</v>
+        <v>213.1849</v>
       </c>
       <c r="BP42">
-        <v>213.1849</v>
+        <v>114.94710000000001</v>
       </c>
       <c r="BQ42">
-        <v>114.94710000000001</v>
+        <v>130.28489999999999</v>
       </c>
       <c r="BR42">
-        <v>130.28489999999999</v>
+        <v>123.5583</v>
       </c>
       <c r="BS42">
-        <v>123.5583</v>
+        <v>180.10419999999999</v>
       </c>
       <c r="BT42">
-        <v>180.10419999999999</v>
+        <v>21151.54</v>
       </c>
       <c r="BU42">
-        <v>21151.54</v>
+        <v>19161.32</v>
       </c>
       <c r="BV42">
-        <v>19161.32</v>
+        <v>21311.67</v>
       </c>
       <c r="BW42">
-        <v>21311.67</v>
+        <v>21221.52</v>
       </c>
       <c r="BX42">
-        <v>21221.52</v>
+        <v>22950.84</v>
       </c>
       <c r="BY42">
-        <v>22950.84</v>
+        <v>26685.360000000001</v>
       </c>
       <c r="BZ42">
-        <v>26685.360000000001</v>
+        <v>43828.160000000003</v>
       </c>
       <c r="CA42">
-        <v>43828.160000000003</v>
+        <v>45942.11</v>
       </c>
       <c r="CB42">
-        <v>45942.11</v>
+        <v>27797.22</v>
       </c>
       <c r="CC42">
-        <v>27797.22</v>
+        <v>22543.46</v>
       </c>
       <c r="CD42">
-        <v>22543.46</v>
+        <v>21009.25</v>
       </c>
       <c r="CE42">
-        <v>21009.25</v>
+        <v>21271.47</v>
       </c>
       <c r="CF42">
-        <v>21271.47</v>
+        <v>247.3357</v>
       </c>
       <c r="CG42">
-        <v>247.3357</v>
+        <v>224.1686</v>
       </c>
       <c r="CH42">
-        <v>224.1686</v>
+        <v>247.15549999999999</v>
       </c>
       <c r="CI42">
-        <v>247.15549999999999</v>
+        <v>234.1378</v>
       </c>
       <c r="CJ42">
-        <v>234.1378</v>
+        <v>229.28319999999999</v>
       </c>
       <c r="CK42">
-        <v>229.28319999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL42">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM42">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN42">
-        <v>199.47069999999999</v>
+        <v>197.1908</v>
       </c>
       <c r="CO42">
-        <v>197.1908</v>
+        <v>214.4333</v>
       </c>
       <c r="CP42">
-        <v>214.4333</v>
+        <v>223.19900000000001</v>
       </c>
       <c r="CQ42">
-        <v>223.19900000000001</v>
-      </c>
-      <c r="CR42">
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:96">
+    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -13101,115 +13021,112 @@
         <v>10973.04</v>
       </c>
       <c r="BI43">
-        <v>10973.04</v>
+        <v>8427.6919999999991</v>
       </c>
       <c r="BJ43">
-        <v>8427.6919999999991</v>
+        <v>4794.9260000000004</v>
       </c>
       <c r="BK43">
-        <v>4794.9260000000004</v>
+        <v>1047.4939999999999</v>
       </c>
       <c r="BL43">
-        <v>1047.4939999999999</v>
+        <v>178.90479999999999</v>
       </c>
       <c r="BM43">
-        <v>178.90479999999999</v>
+        <v>119.4118</v>
       </c>
       <c r="BN43">
-        <v>119.4118</v>
+        <v>101.908</v>
       </c>
       <c r="BO43">
-        <v>101.908</v>
+        <v>213.1567</v>
       </c>
       <c r="BP43">
-        <v>213.1567</v>
+        <v>121.4936</v>
       </c>
       <c r="BQ43">
-        <v>121.4936</v>
+        <v>419.75920000000002</v>
       </c>
       <c r="BR43">
-        <v>419.75920000000002</v>
+        <v>2474.0230000000001</v>
       </c>
       <c r="BS43">
-        <v>2474.0230000000001</v>
+        <v>7820.6459999999997</v>
       </c>
       <c r="BT43">
-        <v>7820.6459999999997</v>
+        <v>0</v>
       </c>
       <c r="BU43">
         <v>0</v>
       </c>
       <c r="BV43">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="BW43">
+        <v>2374.3809999999999</v>
+      </c>
+      <c r="BX43">
+        <v>12343.01</v>
+      </c>
+      <c r="BY43">
+        <v>23857.42</v>
+      </c>
+      <c r="BZ43">
+        <v>42897.3</v>
+      </c>
+      <c r="CA43">
+        <v>46985.68</v>
+      </c>
+      <c r="CB43">
+        <v>25121.49</v>
+      </c>
+      <c r="CC43">
+        <v>9960.4220000000005</v>
+      </c>
+      <c r="CD43">
+        <v>770.62130000000002</v>
+      </c>
+      <c r="CE43">
         <v>0</v>
       </c>
-      <c r="BW43">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="BX43">
-        <v>2374.3809999999999</v>
-      </c>
-      <c r="BY43">
-        <v>12343.01</v>
-      </c>
-      <c r="BZ43">
-        <v>23857.42</v>
-      </c>
-      <c r="CA43">
-        <v>42897.3</v>
-      </c>
-      <c r="CB43">
-        <v>46985.68</v>
-      </c>
-      <c r="CC43">
-        <v>25121.49</v>
-      </c>
-      <c r="CD43">
-        <v>9960.4220000000005</v>
-      </c>
-      <c r="CE43">
-        <v>770.62130000000002</v>
-      </c>
       <c r="CF43">
-        <v>0</v>
+        <v>247.3519</v>
       </c>
       <c r="CG43">
-        <v>247.3519</v>
+        <v>224.18440000000001</v>
       </c>
       <c r="CH43">
-        <v>224.18440000000001</v>
+        <v>247.17240000000001</v>
       </c>
       <c r="CI43">
-        <v>247.17240000000001</v>
+        <v>234.15170000000001</v>
       </c>
       <c r="CJ43">
-        <v>234.15170000000001</v>
+        <v>229.28819999999999</v>
       </c>
       <c r="CK43">
-        <v>229.28819999999999</v>
+        <v>206.52269999999999</v>
       </c>
       <c r="CL43">
-        <v>206.52269999999999</v>
+        <v>203.08359999999999</v>
       </c>
       <c r="CM43">
-        <v>203.08359999999999</v>
+        <v>199.47069999999999</v>
       </c>
       <c r="CN43">
-        <v>199.47069999999999</v>
+        <v>197.19229999999999</v>
       </c>
       <c r="CO43">
-        <v>197.19229999999999</v>
+        <v>214.452</v>
       </c>
       <c r="CP43">
-        <v>214.452</v>
+        <v>223.21770000000001</v>
       </c>
       <c r="CQ43">
-        <v>223.21770000000001</v>
-      </c>
-      <c r="CR43">
         <v>242.477</v>
       </c>
     </row>
-    <row r="44" spans="1:96">
+    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>25</v>
       </c>
@@ -13391,115 +13308,112 @@
         <v>16576.72</v>
       </c>
       <c r="BI44">
-        <v>16576.72</v>
+        <v>13326.13</v>
       </c>
       <c r="BJ44">
-        <v>13326.13</v>
+        <v>9576.527</v>
       </c>
       <c r="BK44">
-        <v>9576.527</v>
+        <v>6380.8440000000001</v>
       </c>
       <c r="BL44">
-        <v>6380.8440000000001</v>
+        <v>4875.433</v>
       </c>
       <c r="BM44">
-        <v>4875.433</v>
+        <v>3633.03</v>
       </c>
       <c r="BN44">
-        <v>3633.03</v>
+        <v>2956.92</v>
       </c>
       <c r="BO44">
-        <v>2956.92</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP44">
-        <v>2840.9960000000001</v>
+        <v>3634.9940000000001</v>
       </c>
       <c r="BQ44">
-        <v>3634.9940000000001</v>
+        <v>5390.6719999999996</v>
       </c>
       <c r="BR44">
-        <v>5390.6719999999996</v>
+        <v>8562.8700000000008</v>
       </c>
       <c r="BS44">
-        <v>8562.8700000000008</v>
+        <v>12990.67</v>
       </c>
       <c r="BT44">
-        <v>12990.67</v>
+        <v>6999.74</v>
       </c>
       <c r="BU44">
-        <v>6999.74</v>
+        <v>9778.9950000000008</v>
       </c>
       <c r="BV44">
-        <v>9778.9950000000008</v>
+        <v>20982.73</v>
       </c>
       <c r="BW44">
-        <v>20982.73</v>
+        <v>24013.35</v>
       </c>
       <c r="BX44">
-        <v>24013.35</v>
+        <v>26723.02</v>
       </c>
       <c r="BY44">
-        <v>26723.02</v>
+        <v>32467.3</v>
       </c>
       <c r="BZ44">
-        <v>32467.3</v>
+        <v>53122.38</v>
       </c>
       <c r="CA44">
-        <v>53122.38</v>
+        <v>56766.86</v>
       </c>
       <c r="CB44">
-        <v>56766.86</v>
+        <v>33818.46</v>
       </c>
       <c r="CC44">
-        <v>33818.46</v>
+        <v>25887.67</v>
       </c>
       <c r="CD44">
-        <v>25887.67</v>
+        <v>21336.91</v>
       </c>
       <c r="CE44">
-        <v>21336.91</v>
+        <v>13441.81</v>
       </c>
       <c r="CF44">
-        <v>13441.81</v>
+        <v>242.61510000000001</v>
       </c>
       <c r="CG44">
-        <v>242.61510000000001</v>
+        <v>219.947</v>
       </c>
       <c r="CH44">
-        <v>219.947</v>
+        <v>242.46029999999999</v>
       </c>
       <c r="CI44">
-        <v>242.46029999999999</v>
+        <v>229.6926</v>
       </c>
       <c r="CJ44">
-        <v>229.6926</v>
+        <v>225.1842</v>
       </c>
       <c r="CK44">
-        <v>225.1842</v>
+        <v>202.7287</v>
       </c>
       <c r="CL44">
-        <v>202.7287</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM44">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN44">
-        <v>195.78319999999999</v>
+        <v>193.6472</v>
       </c>
       <c r="CO44">
-        <v>193.6472</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP44">
-        <v>210.66579999999999</v>
+        <v>219.01390000000001</v>
       </c>
       <c r="CQ44">
-        <v>219.01390000000001</v>
-      </c>
-      <c r="CR44">
         <v>237.86689999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:96">
+    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -13681,115 +13595,112 @@
         <v>16591.740000000002</v>
       </c>
       <c r="BI45">
-        <v>16591.740000000002</v>
+        <v>13354.29</v>
       </c>
       <c r="BJ45">
-        <v>13354.29</v>
+        <v>9582.74</v>
       </c>
       <c r="BK45">
-        <v>9582.74</v>
+        <v>6383.634</v>
       </c>
       <c r="BL45">
-        <v>6383.634</v>
+        <v>4875.1629999999996</v>
       </c>
       <c r="BM45">
-        <v>4875.1629999999996</v>
+        <v>3631.1990000000001</v>
       </c>
       <c r="BN45">
-        <v>3631.1990000000001</v>
+        <v>2956.9250000000002</v>
       </c>
       <c r="BO45">
-        <v>2956.9250000000002</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP45">
-        <v>2840.9960000000001</v>
+        <v>3635.5909999999999</v>
       </c>
       <c r="BQ45">
-        <v>3635.5909999999999</v>
+        <v>5390.6729999999998</v>
       </c>
       <c r="BR45">
-        <v>5390.6729999999998</v>
+        <v>8560.0419999999995</v>
       </c>
       <c r="BS45">
-        <v>8560.0419999999995</v>
+        <v>13013.68</v>
       </c>
       <c r="BT45">
-        <v>13013.68</v>
+        <v>7001.7579999999998</v>
       </c>
       <c r="BU45">
-        <v>7001.7579999999998</v>
+        <v>9779.92</v>
       </c>
       <c r="BV45">
-        <v>9779.92</v>
+        <v>20982.94</v>
       </c>
       <c r="BW45">
-        <v>20982.94</v>
+        <v>24015.360000000001</v>
       </c>
       <c r="BX45">
-        <v>24015.360000000001</v>
+        <v>26722.959999999999</v>
       </c>
       <c r="BY45">
-        <v>26722.959999999999</v>
+        <v>32467.119999999999</v>
       </c>
       <c r="BZ45">
-        <v>32467.119999999999</v>
+        <v>53122.38</v>
       </c>
       <c r="CA45">
-        <v>53122.38</v>
+        <v>56766.86</v>
       </c>
       <c r="CB45">
-        <v>56766.86</v>
+        <v>33818.57</v>
       </c>
       <c r="CC45">
-        <v>33818.57</v>
+        <v>25887.67</v>
       </c>
       <c r="CD45">
-        <v>25887.67</v>
+        <v>21336.57</v>
       </c>
       <c r="CE45">
-        <v>21336.57</v>
+        <v>13441.52</v>
       </c>
       <c r="CF45">
-        <v>13441.52</v>
+        <v>242.61670000000001</v>
       </c>
       <c r="CG45">
-        <v>242.61670000000001</v>
+        <v>219.9461</v>
       </c>
       <c r="CH45">
-        <v>219.9461</v>
+        <v>242.4528</v>
       </c>
       <c r="CI45">
-        <v>242.4528</v>
+        <v>229.69489999999999</v>
       </c>
       <c r="CJ45">
-        <v>229.69489999999999</v>
+        <v>225.18170000000001</v>
       </c>
       <c r="CK45">
-        <v>225.18170000000001</v>
+        <v>202.7286</v>
       </c>
       <c r="CL45">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM45">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN45">
-        <v>195.78319999999999</v>
+        <v>193.64070000000001</v>
       </c>
       <c r="CO45">
-        <v>193.64070000000001</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP45">
-        <v>210.66579999999999</v>
+        <v>219.00309999999999</v>
       </c>
       <c r="CQ45">
-        <v>219.00309999999999</v>
-      </c>
-      <c r="CR45">
         <v>237.8682</v>
       </c>
     </row>
-    <row r="46" spans="1:96">
+    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -13971,115 +13882,112 @@
         <v>16580.78</v>
       </c>
       <c r="BI46">
-        <v>16580.78</v>
+        <v>13353.29</v>
       </c>
       <c r="BJ46">
-        <v>13353.29</v>
+        <v>9587.5450000000001</v>
       </c>
       <c r="BK46">
-        <v>9587.5450000000001</v>
+        <v>6387.6350000000002</v>
       </c>
       <c r="BL46">
-        <v>6387.6350000000002</v>
+        <v>4873.8159999999998</v>
       </c>
       <c r="BM46">
-        <v>4873.8159999999998</v>
+        <v>3631.85</v>
       </c>
       <c r="BN46">
-        <v>3631.85</v>
+        <v>2956.924</v>
       </c>
       <c r="BO46">
-        <v>2956.924</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP46">
-        <v>2840.9960000000001</v>
+        <v>3634.9989999999998</v>
       </c>
       <c r="BQ46">
-        <v>3634.9989999999998</v>
+        <v>5382.8280000000004</v>
       </c>
       <c r="BR46">
-        <v>5382.8280000000004</v>
+        <v>8563.56</v>
       </c>
       <c r="BS46">
-        <v>8563.56</v>
+        <v>13003.83</v>
       </c>
       <c r="BT46">
-        <v>13003.83</v>
+        <v>7005.0649999999996</v>
       </c>
       <c r="BU46">
-        <v>7005.0649999999996</v>
+        <v>9782.3860000000004</v>
       </c>
       <c r="BV46">
-        <v>9782.3860000000004</v>
+        <v>20982.42</v>
       </c>
       <c r="BW46">
-        <v>20982.42</v>
+        <v>24014.47</v>
       </c>
       <c r="BX46">
-        <v>24014.47</v>
+        <v>26722.84</v>
       </c>
       <c r="BY46">
-        <v>26722.84</v>
+        <v>32466.82</v>
       </c>
       <c r="BZ46">
-        <v>32466.82</v>
+        <v>53122.38</v>
       </c>
       <c r="CA46">
-        <v>53122.38</v>
+        <v>56766.86</v>
       </c>
       <c r="CB46">
-        <v>56766.86</v>
+        <v>33818.46</v>
       </c>
       <c r="CC46">
-        <v>33818.46</v>
+        <v>25886.240000000002</v>
       </c>
       <c r="CD46">
-        <v>25886.240000000002</v>
+        <v>21337.23</v>
       </c>
       <c r="CE46">
-        <v>21337.23</v>
+        <v>13439.98</v>
       </c>
       <c r="CF46">
-        <v>13439.98</v>
+        <v>242.62620000000001</v>
       </c>
       <c r="CG46">
-        <v>242.62620000000001</v>
+        <v>219.94309999999999</v>
       </c>
       <c r="CH46">
-        <v>219.94309999999999</v>
+        <v>242.4545</v>
       </c>
       <c r="CI46">
-        <v>242.4545</v>
+        <v>229.68729999999999</v>
       </c>
       <c r="CJ46">
-        <v>229.68729999999999</v>
+        <v>225.1773</v>
       </c>
       <c r="CK46">
-        <v>225.1773</v>
+        <v>202.72300000000001</v>
       </c>
       <c r="CL46">
-        <v>202.72300000000001</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM46">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN46">
-        <v>195.78319999999999</v>
+        <v>193.648</v>
       </c>
       <c r="CO46">
-        <v>193.648</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP46">
-        <v>210.66579999999999</v>
+        <v>219.00579999999999</v>
       </c>
       <c r="CQ46">
-        <v>219.00579999999999</v>
-      </c>
-      <c r="CR46">
         <v>237.8595</v>
       </c>
     </row>
-    <row r="47" spans="1:96">
+    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>25</v>
       </c>
@@ -14261,115 +14169,112 @@
         <v>17177.68</v>
       </c>
       <c r="BI47">
-        <v>17177.68</v>
+        <v>13835.64</v>
       </c>
       <c r="BJ47">
-        <v>13835.64</v>
+        <v>10050.120000000001</v>
       </c>
       <c r="BK47">
-        <v>10050.120000000001</v>
+        <v>6792.2290000000003</v>
       </c>
       <c r="BL47">
-        <v>6792.2290000000003</v>
+        <v>5301.2690000000002</v>
       </c>
       <c r="BM47">
-        <v>5301.2690000000002</v>
+        <v>4046.645</v>
       </c>
       <c r="BN47">
-        <v>4046.645</v>
+        <v>3386.8290000000002</v>
       </c>
       <c r="BO47">
-        <v>3386.8290000000002</v>
+        <v>3272.3980000000001</v>
       </c>
       <c r="BP47">
-        <v>3272.3980000000001</v>
+        <v>4038.6039999999998</v>
       </c>
       <c r="BQ47">
-        <v>4038.6039999999998</v>
+        <v>5818.6989999999996</v>
       </c>
       <c r="BR47">
-        <v>5818.6989999999996</v>
+        <v>8987.7029999999995</v>
       </c>
       <c r="BS47">
-        <v>8987.7029999999995</v>
+        <v>13556.33</v>
       </c>
       <c r="BT47">
-        <v>13556.33</v>
+        <v>6495.0069999999996</v>
       </c>
       <c r="BU47">
-        <v>6495.0069999999996</v>
+        <v>9286.1039999999994</v>
       </c>
       <c r="BV47">
-        <v>9286.1039999999994</v>
+        <v>20339.18</v>
       </c>
       <c r="BW47">
-        <v>20339.18</v>
+        <v>23532.06</v>
       </c>
       <c r="BX47">
-        <v>23532.06</v>
+        <v>26279.42</v>
       </c>
       <c r="BY47">
-        <v>26279.42</v>
+        <v>32071.3</v>
       </c>
       <c r="BZ47">
-        <v>32071.3</v>
+        <v>52855.09</v>
       </c>
       <c r="CA47">
-        <v>52855.09</v>
+        <v>56627.4</v>
       </c>
       <c r="CB47">
-        <v>56627.4</v>
+        <v>33432.839999999997</v>
       </c>
       <c r="CC47">
-        <v>33432.839999999997</v>
+        <v>25417.3</v>
       </c>
       <c r="CD47">
-        <v>25417.3</v>
+        <v>20813.13</v>
       </c>
       <c r="CE47">
-        <v>20813.13</v>
+        <v>12855.43</v>
       </c>
       <c r="CF47">
-        <v>12855.43</v>
+        <v>242.6199</v>
       </c>
       <c r="CG47">
-        <v>242.6199</v>
+        <v>219.94820000000001</v>
       </c>
       <c r="CH47">
-        <v>219.94820000000001</v>
+        <v>242.4555</v>
       </c>
       <c r="CI47">
-        <v>242.4555</v>
+        <v>229.6823</v>
       </c>
       <c r="CJ47">
-        <v>229.6823</v>
+        <v>225.1695</v>
       </c>
       <c r="CK47">
-        <v>225.1695</v>
+        <v>202.72900000000001</v>
       </c>
       <c r="CL47">
-        <v>202.72900000000001</v>
+        <v>199.31540000000001</v>
       </c>
       <c r="CM47">
-        <v>199.31540000000001</v>
+        <v>195.77889999999999</v>
       </c>
       <c r="CN47">
-        <v>195.77889999999999</v>
+        <v>193.62809999999999</v>
       </c>
       <c r="CO47">
-        <v>193.62809999999999</v>
+        <v>210.6293</v>
       </c>
       <c r="CP47">
-        <v>210.6293</v>
+        <v>219.00319999999999</v>
       </c>
       <c r="CQ47">
-        <v>219.00319999999999</v>
-      </c>
-      <c r="CR47">
         <v>237.8587</v>
       </c>
     </row>
-    <row r="48" spans="1:96">
+    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25</v>
       </c>
@@ -14551,115 +14456,112 @@
         <v>17748.240000000002</v>
       </c>
       <c r="BI48">
-        <v>17748.240000000002</v>
+        <v>14293.45</v>
       </c>
       <c r="BJ48">
-        <v>14293.45</v>
+        <v>10443.18</v>
       </c>
       <c r="BK48">
-        <v>10443.18</v>
+        <v>7152.4650000000001</v>
       </c>
       <c r="BL48">
-        <v>7152.4650000000001</v>
+        <v>5660.4170000000004</v>
       </c>
       <c r="BM48">
-        <v>5660.4170000000004</v>
+        <v>4401.1819999999998</v>
       </c>
       <c r="BN48">
-        <v>4401.1819999999998</v>
+        <v>3748.59</v>
       </c>
       <c r="BO48">
-        <v>3748.59</v>
+        <v>3648.29</v>
       </c>
       <c r="BP48">
-        <v>3648.29</v>
+        <v>4381.8050000000003</v>
       </c>
       <c r="BQ48">
-        <v>4381.8050000000003</v>
+        <v>6163.067</v>
       </c>
       <c r="BR48">
-        <v>6163.067</v>
+        <v>9340.3860000000004</v>
       </c>
       <c r="BS48">
-        <v>9340.3860000000004</v>
+        <v>14010.39</v>
       </c>
       <c r="BT48">
-        <v>14010.39</v>
+        <v>6004.5910000000003</v>
       </c>
       <c r="BU48">
-        <v>6004.5910000000003</v>
+        <v>8797.5519999999997</v>
       </c>
       <c r="BV48">
-        <v>8797.5519999999997</v>
+        <v>19682.099999999999</v>
       </c>
       <c r="BW48">
-        <v>19682.099999999999</v>
+        <v>23046.45</v>
       </c>
       <c r="BX48">
-        <v>23046.45</v>
+        <v>25832.93</v>
       </c>
       <c r="BY48">
-        <v>25832.93</v>
+        <v>31666.42</v>
       </c>
       <c r="BZ48">
-        <v>31666.42</v>
+        <v>52582.25</v>
       </c>
       <c r="CA48">
-        <v>52582.25</v>
+        <v>56493.17</v>
       </c>
       <c r="CB48">
-        <v>56493.17</v>
+        <v>33046.35</v>
       </c>
       <c r="CC48">
-        <v>33046.35</v>
+        <v>24948.25</v>
       </c>
       <c r="CD48">
-        <v>24948.25</v>
+        <v>20291.28</v>
       </c>
       <c r="CE48">
-        <v>20291.28</v>
+        <v>12273.99</v>
       </c>
       <c r="CF48">
-        <v>12273.99</v>
+        <v>242.61699999999999</v>
       </c>
       <c r="CG48">
-        <v>242.61699999999999</v>
+        <v>219.94489999999999</v>
       </c>
       <c r="CH48">
-        <v>219.94489999999999</v>
+        <v>242.47790000000001</v>
       </c>
       <c r="CI48">
-        <v>242.47790000000001</v>
+        <v>229.6816</v>
       </c>
       <c r="CJ48">
-        <v>229.6816</v>
+        <v>225.1096</v>
       </c>
       <c r="CK48">
-        <v>225.1096</v>
+        <v>202.7182</v>
       </c>
       <c r="CL48">
-        <v>202.7182</v>
+        <v>199.3134</v>
       </c>
       <c r="CM48">
-        <v>199.3134</v>
+        <v>195.77029999999999</v>
       </c>
       <c r="CN48">
-        <v>195.77029999999999</v>
+        <v>193.6251</v>
       </c>
       <c r="CO48">
-        <v>193.6251</v>
+        <v>210.62180000000001</v>
       </c>
       <c r="CP48">
-        <v>210.62180000000001</v>
+        <v>219.01339999999999</v>
       </c>
       <c r="CQ48">
-        <v>219.01339999999999</v>
-      </c>
-      <c r="CR48">
         <v>237.87459999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:96">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25</v>
       </c>
@@ -14841,115 +14743,112 @@
         <v>16564.52</v>
       </c>
       <c r="BI49">
-        <v>16564.52</v>
+        <v>13349.75</v>
       </c>
       <c r="BJ49">
-        <v>13349.75</v>
+        <v>9565.0470000000005</v>
       </c>
       <c r="BK49">
-        <v>9565.0470000000005</v>
+        <v>6381.4650000000001</v>
       </c>
       <c r="BL49">
-        <v>6381.4650000000001</v>
+        <v>4872.5429999999997</v>
       </c>
       <c r="BM49">
-        <v>4872.5429999999997</v>
+        <v>3631.2020000000002</v>
       </c>
       <c r="BN49">
-        <v>3631.2020000000002</v>
+        <v>2956.9250000000002</v>
       </c>
       <c r="BO49">
-        <v>2956.9250000000002</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP49">
-        <v>2840.9960000000001</v>
+        <v>3634.9940000000001</v>
       </c>
       <c r="BQ49">
-        <v>3634.9940000000001</v>
+        <v>5382.8280000000004</v>
       </c>
       <c r="BR49">
-        <v>5382.8280000000004</v>
+        <v>8567.61</v>
       </c>
       <c r="BS49">
-        <v>8567.61</v>
+        <v>13010.95</v>
       </c>
       <c r="BT49">
-        <v>13010.95</v>
+        <v>5920.79</v>
       </c>
       <c r="BU49">
-        <v>5920.79</v>
+        <v>8276.16</v>
       </c>
       <c r="BV49">
-        <v>8276.16</v>
+        <v>17752.66</v>
       </c>
       <c r="BW49">
-        <v>17752.66</v>
+        <v>20319.91</v>
       </c>
       <c r="BX49">
-        <v>20319.91</v>
+        <v>22611.58</v>
       </c>
       <c r="BY49">
-        <v>22611.58</v>
+        <v>27472.18</v>
       </c>
       <c r="BZ49">
-        <v>27472.18</v>
+        <v>44949.7</v>
       </c>
       <c r="CA49">
-        <v>44949.7</v>
+        <v>48033.5</v>
       </c>
       <c r="CB49">
-        <v>48033.5</v>
+        <v>28615.62</v>
       </c>
       <c r="CC49">
-        <v>28615.62</v>
+        <v>21903.74</v>
       </c>
       <c r="CD49">
-        <v>21903.74</v>
+        <v>18054.439999999999</v>
       </c>
       <c r="CE49">
-        <v>18054.439999999999</v>
+        <v>11370.66</v>
       </c>
       <c r="CF49">
-        <v>11370.66</v>
+        <v>242.61590000000001</v>
       </c>
       <c r="CG49">
-        <v>242.61590000000001</v>
+        <v>219.94929999999999</v>
       </c>
       <c r="CH49">
-        <v>219.94929999999999</v>
+        <v>242.45410000000001</v>
       </c>
       <c r="CI49">
-        <v>242.45410000000001</v>
+        <v>229.68799999999999</v>
       </c>
       <c r="CJ49">
-        <v>229.68799999999999</v>
+        <v>225.18379999999999</v>
       </c>
       <c r="CK49">
-        <v>225.18379999999999</v>
+        <v>202.7286</v>
       </c>
       <c r="CL49">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM49">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN49">
-        <v>195.78319999999999</v>
+        <v>193.6472</v>
       </c>
       <c r="CO49">
-        <v>193.6472</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP49">
-        <v>210.66579999999999</v>
+        <v>219.0051</v>
       </c>
       <c r="CQ49">
-        <v>219.0051</v>
-      </c>
-      <c r="CR49">
         <v>237.86600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:96">
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>25</v>
       </c>
@@ -15131,115 +15030,112 @@
         <v>16586.189999999999</v>
       </c>
       <c r="BI50">
-        <v>16586.189999999999</v>
+        <v>13338.47</v>
       </c>
       <c r="BJ50">
-        <v>13338.47</v>
+        <v>9565.9570000000003</v>
       </c>
       <c r="BK50">
-        <v>9565.9570000000003</v>
+        <v>6385.8069999999998</v>
       </c>
       <c r="BL50">
-        <v>6385.8069999999998</v>
+        <v>4872.8180000000002</v>
       </c>
       <c r="BM50">
-        <v>4872.8180000000002</v>
+        <v>3631.2020000000002</v>
       </c>
       <c r="BN50">
-        <v>3631.2020000000002</v>
+        <v>2956.9250000000002</v>
       </c>
       <c r="BO50">
-        <v>2956.9250000000002</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP50">
-        <v>2840.9960000000001</v>
+        <v>3634.9940000000001</v>
       </c>
       <c r="BQ50">
-        <v>3634.9940000000001</v>
+        <v>5382.8280000000004</v>
       </c>
       <c r="BR50">
-        <v>5382.8280000000004</v>
+        <v>8561.0069999999996</v>
       </c>
       <c r="BS50">
-        <v>8561.0069999999996</v>
+        <v>13010.85</v>
       </c>
       <c r="BT50">
-        <v>13010.85</v>
+        <v>5136.6360000000004</v>
       </c>
       <c r="BU50">
-        <v>5136.6360000000004</v>
+        <v>7171.2709999999997</v>
       </c>
       <c r="BV50">
-        <v>7171.2709999999997</v>
+        <v>15386.31</v>
       </c>
       <c r="BW50">
-        <v>15386.31</v>
+        <v>17610.599999999999</v>
       </c>
       <c r="BX50">
-        <v>17610.599999999999</v>
+        <v>19596.79</v>
       </c>
       <c r="BY50">
-        <v>19596.79</v>
+        <v>23809.22</v>
       </c>
       <c r="BZ50">
-        <v>23809.22</v>
+        <v>38956.410000000003</v>
       </c>
       <c r="CA50">
-        <v>38956.410000000003</v>
+        <v>41629.03</v>
       </c>
       <c r="CB50">
-        <v>41629.03</v>
+        <v>24800.2</v>
       </c>
       <c r="CC50">
-        <v>24800.2</v>
+        <v>18983.240000000002</v>
       </c>
       <c r="CD50">
-        <v>18983.240000000002</v>
+        <v>15646.01</v>
       </c>
       <c r="CE50">
-        <v>15646.01</v>
+        <v>9855.2530000000006</v>
       </c>
       <c r="CF50">
-        <v>9855.2530000000006</v>
+        <v>242.63820000000001</v>
       </c>
       <c r="CG50">
-        <v>242.63820000000001</v>
+        <v>219.9528</v>
       </c>
       <c r="CH50">
-        <v>219.9528</v>
+        <v>242.4425</v>
       </c>
       <c r="CI50">
-        <v>242.4425</v>
+        <v>229.68549999999999</v>
       </c>
       <c r="CJ50">
-        <v>229.68549999999999</v>
+        <v>225.1825</v>
       </c>
       <c r="CK50">
-        <v>225.1825</v>
+        <v>202.7286</v>
       </c>
       <c r="CL50">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM50">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN50">
-        <v>195.78319999999999</v>
+        <v>193.6472</v>
       </c>
       <c r="CO50">
-        <v>193.6472</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP50">
-        <v>210.66579999999999</v>
+        <v>218.99449999999999</v>
       </c>
       <c r="CQ50">
-        <v>218.99449999999999</v>
-      </c>
-      <c r="CR50">
         <v>237.8612</v>
       </c>
     </row>
-    <row r="51" spans="1:96">
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -15421,115 +15317,112 @@
         <v>16560.689999999999</v>
       </c>
       <c r="BI51">
-        <v>16560.689999999999</v>
+        <v>13353.14</v>
       </c>
       <c r="BJ51">
-        <v>13353.14</v>
+        <v>9577.0730000000003</v>
       </c>
       <c r="BK51">
-        <v>9577.0730000000003</v>
+        <v>6382.7169999999996</v>
       </c>
       <c r="BL51">
-        <v>6382.7169999999996</v>
+        <v>4876.393</v>
       </c>
       <c r="BM51">
-        <v>4876.393</v>
+        <v>3631.3040000000001</v>
       </c>
       <c r="BN51">
-        <v>3631.3040000000001</v>
+        <v>2956.924</v>
       </c>
       <c r="BO51">
-        <v>2956.924</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP51">
-        <v>2840.9960000000001</v>
+        <v>3634.9989999999998</v>
       </c>
       <c r="BQ51">
-        <v>3634.9989999999998</v>
+        <v>5390.6719999999996</v>
       </c>
       <c r="BR51">
-        <v>5390.6719999999996</v>
+        <v>8555.3919999999998</v>
       </c>
       <c r="BS51">
-        <v>8555.3919999999998</v>
+        <v>12990.66</v>
       </c>
       <c r="BT51">
-        <v>12990.66</v>
+        <v>6998.2830000000004</v>
       </c>
       <c r="BU51">
-        <v>6998.2830000000004</v>
+        <v>9782.2009999999991</v>
       </c>
       <c r="BV51">
-        <v>9782.2009999999991</v>
+        <v>20982.57</v>
       </c>
       <c r="BW51">
-        <v>20982.57</v>
+        <v>24013.37</v>
       </c>
       <c r="BX51">
-        <v>24013.37</v>
+        <v>26722.84</v>
       </c>
       <c r="BY51">
-        <v>26722.84</v>
+        <v>32467.13</v>
       </c>
       <c r="BZ51">
-        <v>32467.13</v>
+        <v>53122.38</v>
       </c>
       <c r="CA51">
-        <v>53122.38</v>
+        <v>56766.86</v>
       </c>
       <c r="CB51">
-        <v>56766.86</v>
+        <v>33818.449999999997</v>
       </c>
       <c r="CC51">
-        <v>33818.449999999997</v>
+        <v>25887.67</v>
       </c>
       <c r="CD51">
-        <v>25887.67</v>
+        <v>21336.37</v>
       </c>
       <c r="CE51">
-        <v>21336.37</v>
+        <v>13437.65</v>
       </c>
       <c r="CF51">
-        <v>13437.65</v>
+        <v>242.61590000000001</v>
       </c>
       <c r="CG51">
-        <v>242.61590000000001</v>
+        <v>219.94800000000001</v>
       </c>
       <c r="CH51">
-        <v>219.94800000000001</v>
+        <v>242.4511</v>
       </c>
       <c r="CI51">
-        <v>242.4511</v>
+        <v>229.68510000000001</v>
       </c>
       <c r="CJ51">
-        <v>229.68510000000001</v>
+        <v>225.18809999999999</v>
       </c>
       <c r="CK51">
-        <v>225.18809999999999</v>
+        <v>202.7286</v>
       </c>
       <c r="CL51">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM51">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN51">
-        <v>195.78319999999999</v>
+        <v>193.64680000000001</v>
       </c>
       <c r="CO51">
-        <v>193.64680000000001</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP51">
-        <v>210.66579999999999</v>
+        <v>219.01419999999999</v>
       </c>
       <c r="CQ51">
-        <v>219.01419999999999</v>
-      </c>
-      <c r="CR51">
         <v>237.86349999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:96">
+    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -15711,115 +15604,112 @@
         <v>16607.41</v>
       </c>
       <c r="BI52">
-        <v>16607.41</v>
+        <v>13345.9</v>
       </c>
       <c r="BJ52">
-        <v>13345.9</v>
+        <v>9594.7880000000005</v>
       </c>
       <c r="BK52">
-        <v>9594.7880000000005</v>
+        <v>6384.7550000000001</v>
       </c>
       <c r="BL52">
-        <v>6384.7550000000001</v>
+        <v>4876.1239999999998</v>
       </c>
       <c r="BM52">
-        <v>4876.1239999999998</v>
+        <v>3631.4690000000001</v>
       </c>
       <c r="BN52">
-        <v>3631.4690000000001</v>
+        <v>2956.924</v>
       </c>
       <c r="BO52">
-        <v>2956.924</v>
+        <v>2840.9960000000001</v>
       </c>
       <c r="BP52">
-        <v>2840.9960000000001</v>
+        <v>3634.9940000000001</v>
       </c>
       <c r="BQ52">
-        <v>3634.9940000000001</v>
+        <v>5382.8280000000004</v>
       </c>
       <c r="BR52">
-        <v>5382.8280000000004</v>
+        <v>8559.0750000000007</v>
       </c>
       <c r="BS52">
-        <v>8559.0750000000007</v>
+        <v>13022.76</v>
       </c>
       <c r="BT52">
-        <v>13022.76</v>
+        <v>7003.8029999999999</v>
       </c>
       <c r="BU52">
-        <v>7003.8029999999999</v>
+        <v>9780.5439999999999</v>
       </c>
       <c r="BV52">
-        <v>9780.5439999999999</v>
+        <v>20986.63</v>
       </c>
       <c r="BW52">
-        <v>20986.63</v>
+        <v>24014.44</v>
       </c>
       <c r="BX52">
-        <v>24014.44</v>
+        <v>26722.95</v>
       </c>
       <c r="BY52">
-        <v>26722.95</v>
+        <v>32467.16</v>
       </c>
       <c r="BZ52">
-        <v>32467.16</v>
+        <v>53122.38</v>
       </c>
       <c r="CA52">
-        <v>53122.38</v>
+        <v>56766.86</v>
       </c>
       <c r="CB52">
-        <v>56766.86</v>
+        <v>33818.46</v>
       </c>
       <c r="CC52">
-        <v>33818.46</v>
+        <v>25886.240000000002</v>
       </c>
       <c r="CD52">
-        <v>25886.240000000002</v>
+        <v>21336</v>
       </c>
       <c r="CE52">
-        <v>21336</v>
+        <v>13440.73</v>
       </c>
       <c r="CF52">
-        <v>13440.73</v>
+        <v>242.61619999999999</v>
       </c>
       <c r="CG52">
-        <v>242.61619999999999</v>
+        <v>219.95009999999999</v>
       </c>
       <c r="CH52">
-        <v>219.95009999999999</v>
+        <v>242.4513</v>
       </c>
       <c r="CI52">
-        <v>242.4513</v>
+        <v>229.68639999999999</v>
       </c>
       <c r="CJ52">
-        <v>229.68639999999999</v>
+        <v>225.1765</v>
       </c>
       <c r="CK52">
-        <v>225.1765</v>
+        <v>202.7286</v>
       </c>
       <c r="CL52">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM52">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN52">
-        <v>195.78319999999999</v>
+        <v>193.6472</v>
       </c>
       <c r="CO52">
-        <v>193.6472</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP52">
-        <v>210.66579999999999</v>
+        <v>218.99940000000001</v>
       </c>
       <c r="CQ52">
-        <v>218.99940000000001</v>
-      </c>
-      <c r="CR52">
         <v>237.86179999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:96">
+    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25</v>
       </c>
@@ -16001,115 +15891,112 @@
         <v>16733.47</v>
       </c>
       <c r="BI53">
-        <v>16733.47</v>
+        <v>13429.54</v>
       </c>
       <c r="BJ53">
-        <v>13429.54</v>
+        <v>9591.8719999999994</v>
       </c>
       <c r="BK53">
-        <v>9591.8719999999994</v>
+        <v>6384.0209999999997</v>
       </c>
       <c r="BL53">
-        <v>6384.0209999999997</v>
+        <v>4879.8639999999996</v>
       </c>
       <c r="BM53">
-        <v>4879.8639999999996</v>
+        <v>3617.4949999999999</v>
       </c>
       <c r="BN53">
-        <v>3617.4949999999999</v>
+        <v>2954.42</v>
       </c>
       <c r="BO53">
-        <v>2954.42</v>
+        <v>2832.48</v>
       </c>
       <c r="BP53">
-        <v>2832.48</v>
+        <v>3625.6660000000002</v>
       </c>
       <c r="BQ53">
-        <v>3625.6660000000002</v>
+        <v>5388.4059999999999</v>
       </c>
       <c r="BR53">
-        <v>5388.4059999999999</v>
+        <v>8570.0789999999997</v>
       </c>
       <c r="BS53">
-        <v>8570.0789999999997</v>
+        <v>13054.48</v>
       </c>
       <c r="BT53">
-        <v>13054.48</v>
+        <v>6266.732</v>
       </c>
       <c r="BU53">
-        <v>6266.732</v>
+        <v>9133.69</v>
       </c>
       <c r="BV53">
-        <v>9133.69</v>
+        <v>20383.71</v>
       </c>
       <c r="BW53">
-        <v>20383.71</v>
+        <v>23812.82</v>
       </c>
       <c r="BX53">
-        <v>23812.82</v>
+        <v>26506.79</v>
       </c>
       <c r="BY53">
-        <v>26506.79</v>
+        <v>32085.87</v>
       </c>
       <c r="BZ53">
-        <v>32085.87</v>
+        <v>52615.98</v>
       </c>
       <c r="CA53">
-        <v>52615.98</v>
+        <v>56250.43</v>
       </c>
       <c r="CB53">
-        <v>56250.43</v>
+        <v>33444.82</v>
       </c>
       <c r="CC53">
-        <v>33444.82</v>
+        <v>25657.07</v>
       </c>
       <c r="CD53">
-        <v>25657.07</v>
+        <v>20971.11</v>
       </c>
       <c r="CE53">
-        <v>20971.11</v>
+        <v>12713.23</v>
       </c>
       <c r="CF53">
-        <v>12713.23</v>
+        <v>242.61410000000001</v>
       </c>
       <c r="CG53">
-        <v>242.61410000000001</v>
+        <v>219.95490000000001</v>
       </c>
       <c r="CH53">
-        <v>219.95490000000001</v>
+        <v>242.4462</v>
       </c>
       <c r="CI53">
-        <v>242.4462</v>
+        <v>229.6781</v>
       </c>
       <c r="CJ53">
-        <v>229.6781</v>
+        <v>225.1568</v>
       </c>
       <c r="CK53">
-        <v>225.1568</v>
+        <v>202.72239999999999</v>
       </c>
       <c r="CL53">
-        <v>202.72239999999999</v>
+        <v>199.31479999999999</v>
       </c>
       <c r="CM53">
-        <v>199.31479999999999</v>
+        <v>195.77549999999999</v>
       </c>
       <c r="CN53">
-        <v>195.77549999999999</v>
+        <v>193.6362</v>
       </c>
       <c r="CO53">
-        <v>193.6362</v>
+        <v>210.63210000000001</v>
       </c>
       <c r="CP53">
-        <v>210.63210000000001</v>
+        <v>219.00380000000001</v>
       </c>
       <c r="CQ53">
-        <v>219.00380000000001</v>
-      </c>
-      <c r="CR53">
         <v>237.86869999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:96">
+    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>25</v>
       </c>
@@ -16291,115 +16178,112 @@
         <v>16890.099999999999</v>
       </c>
       <c r="BI54">
-        <v>16890.099999999999</v>
+        <v>13557.24</v>
       </c>
       <c r="BJ54">
-        <v>13557.24</v>
+        <v>9613.4419999999991</v>
       </c>
       <c r="BK54">
-        <v>9613.4419999999991</v>
+        <v>6384.4179999999997</v>
       </c>
       <c r="BL54">
-        <v>6384.4179999999997</v>
+        <v>4880.9049999999997</v>
       </c>
       <c r="BM54">
-        <v>4880.9049999999997</v>
+        <v>3612.33</v>
       </c>
       <c r="BN54">
-        <v>3612.33</v>
+        <v>2952.136</v>
       </c>
       <c r="BO54">
-        <v>2952.136</v>
+        <v>2830.2809999999999</v>
       </c>
       <c r="BP54">
-        <v>2830.2809999999999</v>
+        <v>3613.5610000000001</v>
       </c>
       <c r="BQ54">
-        <v>3613.5610000000001</v>
+        <v>5381.6080000000002</v>
       </c>
       <c r="BR54">
-        <v>5381.6080000000002</v>
+        <v>8587.6610000000001</v>
       </c>
       <c r="BS54">
-        <v>8587.6610000000001</v>
+        <v>13120.06</v>
       </c>
       <c r="BT54">
-        <v>13120.06</v>
+        <v>5723.1319999999996</v>
       </c>
       <c r="BU54">
-        <v>5723.1319999999996</v>
+        <v>8636.9519999999993</v>
       </c>
       <c r="BV54">
-        <v>8636.9519999999993</v>
+        <v>19895.57</v>
       </c>
       <c r="BW54">
-        <v>19895.57</v>
+        <v>23644.959999999999</v>
       </c>
       <c r="BX54">
-        <v>23644.959999999999</v>
+        <v>26340.34</v>
       </c>
       <c r="BY54">
-        <v>26340.34</v>
+        <v>31793.48</v>
       </c>
       <c r="BZ54">
-        <v>31793.48</v>
+        <v>52203.59</v>
       </c>
       <c r="CA54">
-        <v>52203.59</v>
+        <v>55838.39</v>
       </c>
       <c r="CB54">
-        <v>55838.39</v>
+        <v>33152.43</v>
       </c>
       <c r="CC54">
-        <v>33152.43</v>
+        <v>25482.47</v>
       </c>
       <c r="CD54">
-        <v>25482.47</v>
+        <v>20679.2</v>
       </c>
       <c r="CE54">
-        <v>20679.2</v>
+        <v>12159.62</v>
       </c>
       <c r="CF54">
-        <v>12159.62</v>
+        <v>242.6362</v>
       </c>
       <c r="CG54">
-        <v>242.6362</v>
+        <v>219.95359999999999</v>
       </c>
       <c r="CH54">
-        <v>219.95359999999999</v>
+        <v>242.45320000000001</v>
       </c>
       <c r="CI54">
-        <v>242.45320000000001</v>
+        <v>229.67750000000001</v>
       </c>
       <c r="CJ54">
-        <v>229.67750000000001</v>
+        <v>225.14080000000001</v>
       </c>
       <c r="CK54">
-        <v>225.14080000000001</v>
+        <v>202.72550000000001</v>
       </c>
       <c r="CL54">
-        <v>202.72550000000001</v>
+        <v>199.309</v>
       </c>
       <c r="CM54">
-        <v>199.309</v>
+        <v>195.78309999999999</v>
       </c>
       <c r="CN54">
-        <v>195.78309999999999</v>
+        <v>193.64240000000001</v>
       </c>
       <c r="CO54">
-        <v>193.64240000000001</v>
+        <v>210.62350000000001</v>
       </c>
       <c r="CP54">
-        <v>210.62350000000001</v>
+        <v>219.0087</v>
       </c>
       <c r="CQ54">
-        <v>219.0087</v>
-      </c>
-      <c r="CR54">
         <v>237.87299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:96">
+    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>25</v>
       </c>
@@ -16581,115 +16465,112 @@
         <v>15785.36</v>
       </c>
       <c r="BI55">
-        <v>15785.36</v>
+        <v>12785.79</v>
       </c>
       <c r="BJ55">
-        <v>12785.79</v>
+        <v>9580.6679999999997</v>
       </c>
       <c r="BK55">
-        <v>9580.6679999999997</v>
+        <v>6386.13</v>
       </c>
       <c r="BL55">
-        <v>6386.13</v>
+        <v>4874.143</v>
       </c>
       <c r="BM55">
-        <v>4874.143</v>
+        <v>3631.1889999999999</v>
       </c>
       <c r="BN55">
-        <v>3631.1889999999999</v>
+        <v>2958.6210000000001</v>
       </c>
       <c r="BO55">
-        <v>2958.6210000000001</v>
+        <v>2840.6709999999998</v>
       </c>
       <c r="BP55">
-        <v>2840.6709999999998</v>
+        <v>3635.201</v>
       </c>
       <c r="BQ55">
-        <v>3635.201</v>
+        <v>5382.7330000000002</v>
       </c>
       <c r="BR55">
-        <v>5382.7330000000002</v>
+        <v>8553.4429999999993</v>
       </c>
       <c r="BS55">
-        <v>8553.4429999999993</v>
+        <v>12674.05</v>
       </c>
       <c r="BT55">
-        <v>12674.05</v>
+        <v>14163.57</v>
       </c>
       <c r="BU55">
-        <v>14163.57</v>
+        <v>15234.4</v>
       </c>
       <c r="BV55">
-        <v>15234.4</v>
+        <v>23824.25</v>
       </c>
       <c r="BW55">
-        <v>23824.25</v>
+        <v>24478.18</v>
       </c>
       <c r="BX55">
-        <v>24478.18</v>
+        <v>27104.19</v>
       </c>
       <c r="BY55">
-        <v>27104.19</v>
+        <v>32683.73</v>
       </c>
       <c r="BZ55">
-        <v>32683.73</v>
+        <v>53062.74</v>
       </c>
       <c r="CA55">
-        <v>53062.74</v>
+        <v>56460.4</v>
       </c>
       <c r="CB55">
-        <v>56460.4</v>
+        <v>33993.5</v>
       </c>
       <c r="CC55">
-        <v>33993.5</v>
+        <v>26436.9</v>
       </c>
       <c r="CD55">
-        <v>26436.9</v>
+        <v>23193</v>
       </c>
       <c r="CE55">
-        <v>23193</v>
+        <v>19075.13</v>
       </c>
       <c r="CF55">
-        <v>19075.13</v>
+        <v>242.62180000000001</v>
       </c>
       <c r="CG55">
-        <v>242.62180000000001</v>
+        <v>219.94550000000001</v>
       </c>
       <c r="CH55">
-        <v>219.94550000000001</v>
+        <v>242.44159999999999</v>
       </c>
       <c r="CI55">
-        <v>242.44159999999999</v>
+        <v>229.69319999999999</v>
       </c>
       <c r="CJ55">
-        <v>229.69319999999999</v>
+        <v>225.1832</v>
       </c>
       <c r="CK55">
-        <v>225.1832</v>
+        <v>202.7286</v>
       </c>
       <c r="CL55">
-        <v>202.7286</v>
+        <v>199.31030000000001</v>
       </c>
       <c r="CM55">
-        <v>199.31030000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN55">
-        <v>195.78319999999999</v>
+        <v>193.6472</v>
       </c>
       <c r="CO55">
-        <v>193.6472</v>
+        <v>210.66579999999999</v>
       </c>
       <c r="CP55">
-        <v>210.66579999999999</v>
+        <v>219.00280000000001</v>
       </c>
       <c r="CQ55">
-        <v>219.00280000000001</v>
-      </c>
-      <c r="CR55">
         <v>237.8638</v>
       </c>
     </row>
-    <row r="56" spans="1:96">
+    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -16871,115 +16752,112 @@
         <v>15633.95</v>
       </c>
       <c r="BI56">
-        <v>15633.95</v>
+        <v>12666.61</v>
       </c>
       <c r="BJ56">
-        <v>12666.61</v>
+        <v>9553.8259999999991</v>
       </c>
       <c r="BK56">
-        <v>9553.8259999999991</v>
+        <v>6382.5640000000003</v>
       </c>
       <c r="BL56">
-        <v>6382.5640000000003</v>
+        <v>4873.2299999999996</v>
       </c>
       <c r="BM56">
-        <v>4873.2299999999996</v>
+        <v>3629.1120000000001</v>
       </c>
       <c r="BN56">
-        <v>3629.1120000000001</v>
+        <v>2960.2939999999999</v>
       </c>
       <c r="BO56">
-        <v>2960.2939999999999</v>
+        <v>2840.7550000000001</v>
       </c>
       <c r="BP56">
-        <v>2840.7550000000001</v>
+        <v>3636.0770000000002</v>
       </c>
       <c r="BQ56">
-        <v>3636.0770000000002</v>
+        <v>5381.9539999999997</v>
       </c>
       <c r="BR56">
-        <v>5381.9539999999997</v>
+        <v>8528.9390000000003</v>
       </c>
       <c r="BS56">
-        <v>8528.9390000000003</v>
+        <v>12633.38</v>
       </c>
       <c r="BT56">
-        <v>12633.38</v>
+        <v>20686.71</v>
       </c>
       <c r="BU56">
-        <v>20686.71</v>
+        <v>19617.18</v>
       </c>
       <c r="BV56">
-        <v>19617.18</v>
+        <v>24800.01</v>
       </c>
       <c r="BW56">
-        <v>24800.01</v>
+        <v>24871.85</v>
       </c>
       <c r="BX56">
-        <v>24871.85</v>
+        <v>27600.65</v>
       </c>
       <c r="BY56">
-        <v>27600.65</v>
+        <v>32907.42</v>
       </c>
       <c r="BZ56">
-        <v>32907.42</v>
+        <v>53002.09</v>
       </c>
       <c r="CA56">
-        <v>53002.09</v>
+        <v>56155.57</v>
       </c>
       <c r="CB56">
-        <v>56155.57</v>
+        <v>34181.760000000002</v>
       </c>
       <c r="CC56">
-        <v>34181.760000000002</v>
+        <v>26926.82</v>
       </c>
       <c r="CD56">
-        <v>26926.82</v>
+        <v>24249.68</v>
       </c>
       <c r="CE56">
-        <v>24249.68</v>
+        <v>23124.02</v>
       </c>
       <c r="CF56">
-        <v>23124.02</v>
+        <v>242.6283</v>
       </c>
       <c r="CG56">
-        <v>242.6283</v>
+        <v>219.94589999999999</v>
       </c>
       <c r="CH56">
-        <v>219.94589999999999</v>
+        <v>242.45349999999999</v>
       </c>
       <c r="CI56">
-        <v>242.45349999999999</v>
+        <v>229.69280000000001</v>
       </c>
       <c r="CJ56">
-        <v>229.69280000000001</v>
+        <v>225.18299999999999</v>
       </c>
       <c r="CK56">
-        <v>225.18299999999999</v>
+        <v>202.72309999999999</v>
       </c>
       <c r="CL56">
-        <v>202.72309999999999</v>
+        <v>199.31010000000001</v>
       </c>
       <c r="CM56">
-        <v>199.31010000000001</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN56">
-        <v>195.78319999999999</v>
+        <v>193.6491</v>
       </c>
       <c r="CO56">
-        <v>193.6491</v>
+        <v>210.65989999999999</v>
       </c>
       <c r="CP56">
-        <v>210.65989999999999</v>
+        <v>218.9948</v>
       </c>
       <c r="CQ56">
-        <v>218.9948</v>
-      </c>
-      <c r="CR56">
         <v>237.85890000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:96">
+    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -17161,112 +17039,550 @@
         <v>38742.639999999999</v>
       </c>
       <c r="BI57">
-        <v>38742.639999999999</v>
+        <v>29912.44</v>
       </c>
       <c r="BJ57">
-        <v>29912.44</v>
+        <v>17400.150000000001</v>
       </c>
       <c r="BK57">
-        <v>17400.150000000001</v>
+        <v>7545.1319999999996</v>
       </c>
       <c r="BL57">
-        <v>7545.1319999999996</v>
+        <v>4862.3149999999996</v>
       </c>
       <c r="BM57">
-        <v>4862.3149999999996</v>
+        <v>3635.2950000000001</v>
       </c>
       <c r="BN57">
-        <v>3635.2950000000001</v>
+        <v>2959.442</v>
       </c>
       <c r="BO57">
-        <v>2959.442</v>
+        <v>2841.5419999999999</v>
       </c>
       <c r="BP57">
-        <v>2841.5419999999999</v>
+        <v>3629.3220000000001</v>
       </c>
       <c r="BQ57">
-        <v>3629.3220000000001</v>
+        <v>5773.13</v>
       </c>
       <c r="BR57">
-        <v>5773.13</v>
+        <v>13331.84</v>
       </c>
       <c r="BS57">
-        <v>13331.84</v>
+        <v>28459.32</v>
       </c>
       <c r="BT57">
-        <v>28459.32</v>
+        <v>0</v>
       </c>
       <c r="BU57">
         <v>0</v>
       </c>
       <c r="BV57">
-        <v>0</v>
+        <v>2.5869999999999999E-3</v>
       </c>
       <c r="BW57">
-        <v>2.5869999999999999E-3</v>
+        <v>3147.4650000000001</v>
       </c>
       <c r="BX57">
-        <v>3147.4650000000001</v>
+        <v>15613.44</v>
       </c>
       <c r="BY57">
-        <v>15613.44</v>
+        <v>30594.41</v>
       </c>
       <c r="BZ57">
-        <v>30594.41</v>
+        <v>55792.33</v>
       </c>
       <c r="CA57">
-        <v>55792.33</v>
+        <v>60978.42</v>
       </c>
       <c r="CB57">
-        <v>60978.42</v>
+        <v>32379.67</v>
       </c>
       <c r="CC57">
-        <v>32379.67</v>
+        <v>12538.15</v>
       </c>
       <c r="CD57">
-        <v>12538.15</v>
+        <v>1006.516</v>
       </c>
       <c r="CE57">
-        <v>1006.516</v>
+        <v>3.4299999999999999E-4</v>
       </c>
       <c r="CF57">
-        <v>3.4299999999999999E-4</v>
+        <v>242.6249</v>
       </c>
       <c r="CG57">
-        <v>242.6249</v>
+        <v>219.9503</v>
       </c>
       <c r="CH57">
-        <v>219.9503</v>
+        <v>242.5043</v>
       </c>
       <c r="CI57">
-        <v>242.5043</v>
+        <v>229.69560000000001</v>
       </c>
       <c r="CJ57">
-        <v>229.69560000000001</v>
+        <v>225.18389999999999</v>
       </c>
       <c r="CK57">
-        <v>225.18389999999999</v>
+        <v>202.7287</v>
       </c>
       <c r="CL57">
-        <v>202.7287</v>
+        <v>199.30969999999999</v>
       </c>
       <c r="CM57">
-        <v>199.30969999999999</v>
+        <v>195.78319999999999</v>
       </c>
       <c r="CN57">
-        <v>195.78319999999999</v>
+        <v>193.63929999999999</v>
       </c>
       <c r="CO57">
-        <v>193.63929999999999</v>
+        <v>210.64789999999999</v>
       </c>
       <c r="CP57">
-        <v>210.64789999999999</v>
+        <v>219.00810000000001</v>
       </c>
       <c r="CQ57">
-        <v>219.00810000000001</v>
-      </c>
-      <c r="CR57">
         <v>237.85409999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2760CE2A-53EF-43C1-8C11-464FB003F4D6}">
+  <dimension ref="A1:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iptimeCloud\projectSha\KRRI_regression_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5BF3B-28C2-4088-A24C-9D53928C4486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B202D9F-5557-48A1-BE16-328C39F785DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,34 +65,6 @@
     <t>Occupied_floor_area</t>
   </si>
   <si>
-    <t>Room_Elec_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room_Elec_2</t>
-  </si>
-  <si>
-    <t>Room_Elec_3</t>
-  </si>
-  <si>
-    <t>Room_Elec_4</t>
-  </si>
-  <si>
-    <t>Room_Elec_5</t>
-  </si>
-  <si>
-    <t>Room_Elec_6</t>
-  </si>
-  <si>
-    <t>Room_Elec_7</t>
-  </si>
-  <si>
-    <t>Room_Elec_8</t>
-  </si>
-  <si>
-    <t>Room_Elec_9</t>
-  </si>
-  <si>
     <t>Room_Elec_10</t>
   </si>
   <si>
@@ -100,34 +72,6 @@
   </si>
   <si>
     <t>Room_Elec_12</t>
-  </si>
-  <si>
-    <t>Lighting_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lighting_2</t>
-  </si>
-  <si>
-    <t>Lighting_3</t>
-  </si>
-  <si>
-    <t>Lighting_4</t>
-  </si>
-  <si>
-    <t>Lighting_5</t>
-  </si>
-  <si>
-    <t>Lighting_6</t>
-  </si>
-  <si>
-    <t>Lighting_7</t>
-  </si>
-  <si>
-    <t>Lighting_8</t>
-  </si>
-  <si>
-    <t>Lighting_9</t>
   </si>
   <si>
     <t>Lighting_10</t>
@@ -139,34 +83,6 @@
     <t>Lighting_12</t>
   </si>
   <si>
-    <t>Fans_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fans_2</t>
-  </si>
-  <si>
-    <t>Fans_3</t>
-  </si>
-  <si>
-    <t>Fans_4</t>
-  </si>
-  <si>
-    <t>Fans_5</t>
-  </si>
-  <si>
-    <t>Fans_6</t>
-  </si>
-  <si>
-    <t>Fans_7</t>
-  </si>
-  <si>
-    <t>Fans_8</t>
-  </si>
-  <si>
-    <t>Fans_9</t>
-  </si>
-  <si>
     <t>Fans_10</t>
   </si>
   <si>
@@ -174,34 +90,6 @@
   </si>
   <si>
     <t>Fans_12</t>
-  </si>
-  <si>
-    <t>Pumps_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumps_2</t>
-  </si>
-  <si>
-    <t>Pumps_3</t>
-  </si>
-  <si>
-    <t>Pumps_4</t>
-  </si>
-  <si>
-    <t>Pumps_5</t>
-  </si>
-  <si>
-    <t>Pumps_6</t>
-  </si>
-  <si>
-    <t>Pumps_7</t>
-  </si>
-  <si>
-    <t>Pumps_8</t>
-  </si>
-  <si>
-    <t>Pumps_9</t>
   </si>
   <si>
     <t>Pumps_10</t>
@@ -213,34 +101,6 @@
     <t>Pumps_12</t>
   </si>
   <si>
-    <t>Heating_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heating_2</t>
-  </si>
-  <si>
-    <t>Heating_3</t>
-  </si>
-  <si>
-    <t>Heating_4</t>
-  </si>
-  <si>
-    <t>Heating_5</t>
-  </si>
-  <si>
-    <t>Heating_6</t>
-  </si>
-  <si>
-    <t>Heating_7</t>
-  </si>
-  <si>
-    <t>Heating_8</t>
-  </si>
-  <si>
-    <t>Heating_9</t>
-  </si>
-  <si>
     <t>Heating_10</t>
   </si>
   <si>
@@ -250,34 +110,6 @@
     <t>Heating_12</t>
   </si>
   <si>
-    <t>Cooling_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooling_2</t>
-  </si>
-  <si>
-    <t>Cooling_3</t>
-  </si>
-  <si>
-    <t>Cooling_4</t>
-  </si>
-  <si>
-    <t>Cooling_5</t>
-  </si>
-  <si>
-    <t>Cooling_6</t>
-  </si>
-  <si>
-    <t>Cooling_7</t>
-  </si>
-  <si>
-    <t>Cooling_8</t>
-  </si>
-  <si>
-    <t>Cooling_9</t>
-  </si>
-  <si>
     <t>Cooling_10</t>
   </si>
   <si>
@@ -285,34 +117,6 @@
   </si>
   <si>
     <t>Cooling_12</t>
-  </si>
-  <si>
-    <t>DHW_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHW_2</t>
-  </si>
-  <si>
-    <t>DHW_3</t>
-  </si>
-  <si>
-    <t>DHW_4</t>
-  </si>
-  <si>
-    <t>DHW_5</t>
-  </si>
-  <si>
-    <t>DHW_6</t>
-  </si>
-  <si>
-    <t>DHW_7</t>
-  </si>
-  <si>
-    <t>DHW_8</t>
-  </si>
-  <si>
-    <t>DHW_9</t>
   </si>
   <si>
     <t>DHW_10</t>
@@ -364,6 +168,207 @@
   <si>
     <t>Month</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room_Elec_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room_Elec_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room_Elec_03</t>
+  </si>
+  <si>
+    <t>Room_Elec_04</t>
+  </si>
+  <si>
+    <t>Room_Elec_05</t>
+  </si>
+  <si>
+    <t>Room_Elec_06</t>
+  </si>
+  <si>
+    <t>Room_Elec_07</t>
+  </si>
+  <si>
+    <t>Room_Elec_08</t>
+  </si>
+  <si>
+    <t>Room_Elec_09</t>
+  </si>
+  <si>
+    <t>Lighting_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lighting_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lighting_03</t>
+  </si>
+  <si>
+    <t>Lighting_04</t>
+  </si>
+  <si>
+    <t>Lighting_05</t>
+  </si>
+  <si>
+    <t>Lighting_06</t>
+  </si>
+  <si>
+    <t>Lighting_07</t>
+  </si>
+  <si>
+    <t>Lighting_08</t>
+  </si>
+  <si>
+    <t>Lighting_09</t>
+  </si>
+  <si>
+    <t>Fans_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fans_02</t>
+  </si>
+  <si>
+    <t>Fans_03</t>
+  </si>
+  <si>
+    <t>Fans_04</t>
+  </si>
+  <si>
+    <t>Fans_05</t>
+  </si>
+  <si>
+    <t>Fans_06</t>
+  </si>
+  <si>
+    <t>Fans_07</t>
+  </si>
+  <si>
+    <t>Fans_08</t>
+  </si>
+  <si>
+    <t>Fans_09</t>
+  </si>
+  <si>
+    <t>Pumps_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumps_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumps_03</t>
+  </si>
+  <si>
+    <t>Pumps_04</t>
+  </si>
+  <si>
+    <t>Pumps_05</t>
+  </si>
+  <si>
+    <t>Pumps_06</t>
+  </si>
+  <si>
+    <t>Pumps_07</t>
+  </si>
+  <si>
+    <t>Pumps_08</t>
+  </si>
+  <si>
+    <t>Pumps_09</t>
+  </si>
+  <si>
+    <t>Heating_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heating_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heating_03</t>
+  </si>
+  <si>
+    <t>Heating_04</t>
+  </si>
+  <si>
+    <t>Heating_05</t>
+  </si>
+  <si>
+    <t>Heating_06</t>
+  </si>
+  <si>
+    <t>Heating_07</t>
+  </si>
+  <si>
+    <t>Heating_08</t>
+  </si>
+  <si>
+    <t>Heating_09</t>
+  </si>
+  <si>
+    <t>Cooling_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooling_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooling_03</t>
+  </si>
+  <si>
+    <t>Cooling_04</t>
+  </si>
+  <si>
+    <t>Cooling_05</t>
+  </si>
+  <si>
+    <t>Cooling_06</t>
+  </si>
+  <si>
+    <t>Cooling_07</t>
+  </si>
+  <si>
+    <t>Cooling_08</t>
+  </si>
+  <si>
+    <t>Cooling_09</t>
+  </si>
+  <si>
+    <t>DHW_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHW_02</t>
+  </si>
+  <si>
+    <t>DHW_03</t>
+  </si>
+  <si>
+    <t>DHW_04</t>
+  </si>
+  <si>
+    <t>DHW_05</t>
+  </si>
+  <si>
+    <t>DHW_06</t>
+  </si>
+  <si>
+    <t>DHW_07</t>
+  </si>
+  <si>
+    <t>DHW_08</t>
+  </si>
+  <si>
+    <t>DHW_09</t>
   </si>
 </sst>
 </file>
@@ -775,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C164E7E-29BE-41CF-B2F5-0F7B73B40C3E}">
   <dimension ref="A1:CQ57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CO7" sqref="CO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,256 +825,256 @@
         <v>3</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CO1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:95" x14ac:dyDescent="0.25">
@@ -17154,7 +17159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2760CE2A-53EF-43C1-8C11-464FB003F4D6}">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -17162,427 +17167,427 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iptimeCloud\projectSha\KRRI_regression_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KRRI_regression_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B202D9F-5557-48A1-BE16-328C39F785DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040A90E-E9B7-4BD8-A790-F5D3560F9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C164E7E-29BE-41CF-B2F5-0F7B73B40C3E}">
   <dimension ref="A1:CQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CO7" sqref="CO7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KRRI_regression_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iptimeCloud\projectSha\KRRI_regression_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040A90E-E9B7-4BD8-A790-F5D3560F9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B202D9F-5557-48A1-BE16-328C39F785DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="29040" windowHeight="15840" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C164E7E-29BE-41CF-B2F5-0F7B73B40C3E}">
   <dimension ref="A1:CQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CO7" sqref="CO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
